--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>466594.1655457388</v>
+        <v>413418.1463002113</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12483355.30355041</v>
+        <v>12535336.02914634</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7932197.303856073</v>
+        <v>7622616.185043053</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9021841.996761387</v>
+        <v>9163921.010886353</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G2" t="n">
-        <v>106.3067152763446</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>21.12316271950942</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>153.8072380324131</v>
       </c>
       <c r="Y2" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W3" t="n">
-        <v>144.6751566710423</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>127.429877995854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>144.6751566710423</v>
+        <v>74.58437257147908</v>
       </c>
       <c r="G4" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>127.429877995854</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>146.8461210887085</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>108.7865063391104</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>146.8461210887085</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>20.55555711582397</v>
+        <v>6.396723986041543</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>146.8461210887085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -989,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>77.86810395997389</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>51.47395949496052</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>146.8461210887085</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>146.8461210887085</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>146.8461210887085</v>
+        <v>153.4479201012701</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>146.8461210887085</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>120.433808648856</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="H7" t="n">
-        <v>146.8461210887085</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>127.6807984793224</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>28.0735774154645</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>11.36529914368128</v>
+        <v>6.396723986041431</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>153.8072380324135</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X8" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1220,16 +1220,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>94.21128653627366</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U9" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X9" t="n">
-        <v>15.40229248514508</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>23.4337583055308</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,31 +1335,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.343082173845758</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>134.794754737099</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>29.00708539155832</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T11" t="n">
-        <v>206.6581849802338</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>44.17631987491122</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>61.2663532843896</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.3343964518635</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>92.83156789269626</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>20.22295923705012</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734075887</v>
       </c>
       <c r="S12" t="n">
-        <v>134.3646350838588</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>192.0665623188214</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8092030868072</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>118.092754139795</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>80.23930645615799</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>101.5575724195736</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S13" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.7486959972119</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,25 +1609,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>150.0833098246622</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9338715566937</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>42.04518470759564</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.464536558263</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9711388310543</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9961436311612</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>304.3617925327518</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.0059677968616</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.65963851412519</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>8.915218264396685</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
-        <v>128.264216864854</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7427643629146</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7875959384519</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>84.69473660442777</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.10049756354942</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>89.17712508496183</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>189.8639731922165</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5722280944081</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2121353820159</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>320.3718062679299</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>238.6591887249595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>34.98723076369662</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2061,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>6.610881037623249</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2083,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>52.03044600306289</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>126.7498226612777</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.7576914549238</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>81.1740025376957</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>36.06002841357613</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2383,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>181.2350518667688</v>
       </c>
     </row>
     <row r="24">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>18.26879610204004</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>126.0955237083909</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2557,10 +2557,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2572,7 +2572,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>252.1815824390003</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>92.30696647914877</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>20.84901245549815</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>127.3165365479904</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>102.8695072550956</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>319.366171042226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2967,7 +2967,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>13.02719212039631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>124.5403771939619</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3040,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>188.605944229152</v>
+        <v>131.0573912450687</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>71.98153210089521</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>203.1977700471494</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3274,19 +3274,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3331,10 +3331,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>61.4169936080627</v>
       </c>
       <c r="Y35" t="n">
-        <v>155.0556308319002</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>163.9429131475853</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>147.9212967840874</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.75634212185736</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>340.0719952408886</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3748,19 +3748,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>160.2962291795008</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>175.5903906093061</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>102.9786181363417</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3915,10 +3915,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>176.5313218723653</v>
       </c>
     </row>
     <row r="44">
@@ -3988,10 +3988,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>102.8695072550965</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>310.8331573064592</v>
       </c>
     </row>
     <row r="45">
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>84.69473660442847</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>73.53680714572759</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>265.0910549047812</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="C2" t="n">
-        <v>118.9545330148395</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="D2" t="n">
-        <v>118.9545330148395</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="E2" t="n">
-        <v>118.9545330148395</v>
+        <v>393.841617006275</v>
       </c>
       <c r="F2" t="n">
-        <v>118.9545330148395</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G2" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>11.57401253368338</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>51.79022575657168</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>138.5837562783352</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>266.8277197508551</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>401.7606130061291</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>515.8386566132575</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>578.7006266841692</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>578.7006266841692</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>557.3640986846647</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="S2" t="n">
-        <v>557.3640986846647</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="T2" t="n">
-        <v>557.3640986846647</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="U2" t="n">
-        <v>557.3640986846647</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="V2" t="n">
-        <v>557.3640986846647</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="W2" t="n">
-        <v>557.3640986846647</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="X2" t="n">
-        <v>557.3640986846647</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="Y2" t="n">
-        <v>411.2275767947229</v>
+        <v>583.2614020227597</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>50.41925783498756</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>148.9740250987618</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>283.3396581397943</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>426.5680632441262</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>504.0242257254407</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P3" t="n">
-        <v>578.7006266841692</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>578.7006266841692</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>578.7006266841692</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S3" t="n">
-        <v>432.5641047942274</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T3" t="n">
-        <v>432.5641047942274</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="U3" t="n">
-        <v>432.5641047942274</v>
+        <v>393.841617006275</v>
       </c>
       <c r="V3" t="n">
-        <v>432.5641047942274</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="W3" t="n">
-        <v>286.4275829042857</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X3" t="n">
-        <v>286.4275829042857</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y3" t="n">
-        <v>157.7105344236251</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>578.7006266841692</v>
+        <v>557.3057129681424</v>
       </c>
       <c r="C4" t="n">
-        <v>578.7006266841692</v>
+        <v>388.3695300402355</v>
       </c>
       <c r="D4" t="n">
-        <v>578.7006266841692</v>
+        <v>238.2528906278998</v>
       </c>
       <c r="E4" t="n">
-        <v>578.7006266841692</v>
+        <v>90.33979704550669</v>
       </c>
       <c r="F4" t="n">
-        <v>432.5641047942274</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>286.4275829042857</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>140.291061014344</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>11.57401253368338</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>149.0154113711736</v>
+        <v>216.063482639416</v>
       </c>
       <c r="M4" t="n">
-        <v>292.2438164755055</v>
+        <v>401.7138139340726</v>
       </c>
       <c r="N4" t="n">
-        <v>435.4722215798373</v>
+        <v>587.3641452287293</v>
       </c>
       <c r="O4" t="n">
-        <v>578.7006266841692</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="P4" t="n">
-        <v>578.7006266841692</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q4" t="n">
-        <v>578.7006266841692</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="R4" t="n">
-        <v>578.7006266841692</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="S4" t="n">
-        <v>578.7006266841692</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="T4" t="n">
-        <v>578.7006266841692</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="U4" t="n">
-        <v>578.7006266841692</v>
+        <v>557.3057129681424</v>
       </c>
       <c r="V4" t="n">
-        <v>578.7006266841692</v>
+        <v>557.3057129681424</v>
       </c>
       <c r="W4" t="n">
-        <v>578.7006266841692</v>
+        <v>557.3057129681424</v>
       </c>
       <c r="X4" t="n">
-        <v>578.7006266841692</v>
+        <v>557.3057129681424</v>
       </c>
       <c r="Y4" t="n">
-        <v>578.7006266841692</v>
+        <v>557.3057129681424</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>418.2918801078316</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C5" t="n">
-        <v>418.2918801078316</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D5" t="n">
-        <v>418.2918801078316</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E5" t="n">
-        <v>269.9624648667118</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F5" t="n">
-        <v>269.9624648667118</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G5" t="n">
-        <v>160.0771049282164</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H5" t="n">
-        <v>11.74768968709668</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I5" t="n">
-        <v>11.74768968709668</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J5" t="n">
-        <v>11.74768968709668</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K5" t="n">
-        <v>53.10181779183017</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L5" t="n">
-        <v>141.3070323458394</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M5" t="n">
-        <v>271.1217663066257</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N5" t="n">
-        <v>407.650846758856</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O5" t="n">
-        <v>523.2361246735303</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P5" t="n">
-        <v>587.3844843548342</v>
+        <v>734.461172602027</v>
       </c>
       <c r="Q5" t="n">
-        <v>587.3844843548342</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R5" t="n">
-        <v>566.6212953489513</v>
+        <v>743.6410113056423</v>
       </c>
       <c r="S5" t="n">
-        <v>566.6212953489513</v>
+        <v>583.2614020227604</v>
       </c>
       <c r="T5" t="n">
-        <v>566.6212953489513</v>
+        <v>583.2614020227604</v>
       </c>
       <c r="U5" t="n">
-        <v>566.6212953489513</v>
+        <v>393.8416170062754</v>
       </c>
       <c r="V5" t="n">
-        <v>566.6212953489513</v>
+        <v>393.8416170062754</v>
       </c>
       <c r="W5" t="n">
-        <v>566.6212953489513</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="X5" t="n">
-        <v>566.6212953489513</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="Y5" t="n">
-        <v>418.2918801078316</v>
+        <v>204.4218319897905</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>142.3962386314749</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="C6" t="n">
-        <v>142.3962386314749</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="D6" t="n">
-        <v>142.3962386314749</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="E6" t="n">
-        <v>142.3962386314749</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="F6" t="n">
-        <v>142.3962386314749</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="G6" t="n">
-        <v>142.3962386314749</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H6" t="n">
-        <v>63.74158816685478</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I6" t="n">
-        <v>11.74768968709668</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J6" t="n">
-        <v>11.74768968709668</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K6" t="n">
-        <v>51.36582106616808</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L6" t="n">
-        <v>150.9598290415665</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M6" t="n">
-        <v>286.5382069752468</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N6" t="n">
-        <v>393.5224324951103</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O6" t="n">
-        <v>511.794105775609</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P6" t="n">
-        <v>587.3844843548342</v>
+        <v>739.5989987017067</v>
       </c>
       <c r="Q6" t="n">
-        <v>587.3844843548342</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R6" t="n">
-        <v>587.3844843548342</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S6" t="n">
-        <v>439.0550691137144</v>
+        <v>598.8192732198765</v>
       </c>
       <c r="T6" t="n">
-        <v>439.0550691137144</v>
+        <v>409.3994882033916</v>
       </c>
       <c r="U6" t="n">
-        <v>439.0550691137144</v>
+        <v>409.3994882033916</v>
       </c>
       <c r="V6" t="n">
-        <v>290.7256538725946</v>
+        <v>409.3994882033916</v>
       </c>
       <c r="W6" t="n">
-        <v>142.3962386314749</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="X6" t="n">
-        <v>142.3962386314749</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="Y6" t="n">
-        <v>142.3962386314749</v>
+        <v>254.4015891111996</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>587.3844843548342</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="C7" t="n">
-        <v>587.3844843548342</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="D7" t="n">
-        <v>439.0550691137144</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="E7" t="n">
-        <v>439.0550691137144</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="F7" t="n">
-        <v>439.0550691137144</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="G7" t="n">
-        <v>317.4047573471932</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H7" t="n">
-        <v>169.0753421060734</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I7" t="n">
-        <v>40.10483859160628</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J7" t="n">
-        <v>11.74768968709668</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K7" t="n">
-        <v>11.74768968709668</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L7" t="n">
-        <v>43.37943790864614</v>
+        <v>118.7527324484196</v>
       </c>
       <c r="M7" t="n">
-        <v>188.7570977864676</v>
+        <v>285.9838492295954</v>
       </c>
       <c r="N7" t="n">
-        <v>334.1347576642891</v>
+        <v>471.6341805242523</v>
       </c>
       <c r="O7" t="n">
-        <v>479.5124175421105</v>
+        <v>634.3723839608025</v>
       </c>
       <c r="P7" t="n">
-        <v>587.3844843548342</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="Q7" t="n">
-        <v>587.3844843548342</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R7" t="n">
-        <v>587.3844843548342</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S7" t="n">
-        <v>587.3844843548342</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="T7" t="n">
-        <v>587.3844843548342</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="U7" t="n">
-        <v>587.3844843548342</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="V7" t="n">
-        <v>587.3844843548342</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="W7" t="n">
-        <v>587.3844843548342</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="X7" t="n">
-        <v>587.3844843548342</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="Y7" t="n">
-        <v>587.3844843548342</v>
+        <v>181.8429936158255</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C8" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D8" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E8" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F8" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G8" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123832</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020272</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R8" t="n">
-        <v>738.6222485201479</v>
+        <v>743.6410113056417</v>
       </c>
       <c r="S8" t="n">
-        <v>738.6222485201479</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="T8" t="n">
-        <v>583.2614020227605</v>
+        <v>393.841617006275</v>
       </c>
       <c r="U8" t="n">
-        <v>583.2614020227605</v>
+        <v>393.841617006275</v>
       </c>
       <c r="V8" t="n">
-        <v>583.2614020227605</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="W8" t="n">
-        <v>583.2614020227605</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X8" t="n">
-        <v>393.8416170062756</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y8" t="n">
-        <v>204.4218319897906</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.00204697330561</v>
+        <v>371.26277863231</v>
       </c>
       <c r="C9" t="n">
-        <v>15.00204697330561</v>
+        <v>371.26277863231</v>
       </c>
       <c r="D9" t="n">
-        <v>15.00204697330561</v>
+        <v>371.26277863231</v>
       </c>
       <c r="E9" t="n">
-        <v>15.00204697330561</v>
+        <v>212.0253236268545</v>
       </c>
       <c r="F9" t="n">
-        <v>15.00204697330561</v>
+        <v>212.0253236268545</v>
       </c>
       <c r="G9" t="n">
-        <v>15.00204697330561</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772652</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017069</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S9" t="n">
-        <v>598.8192732198768</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T9" t="n">
-        <v>598.8192732198768</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="U9" t="n">
-        <v>409.3994882033918</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="V9" t="n">
-        <v>409.3994882033918</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="W9" t="n">
-        <v>219.9797031869068</v>
+        <v>371.26277863231</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4218319897906</v>
+        <v>371.26277863231</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.00204697330561</v>
+        <v>371.26277863231</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>610.5691800683666</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C10" t="n">
-        <v>610.5691800683666</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D10" t="n">
-        <v>460.4525406560308</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E10" t="n">
-        <v>312.5394470736377</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F10" t="n">
-        <v>165.6494995757273</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G10" t="n">
-        <v>165.6494995757273</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H10" t="n">
-        <v>165.6494995757273</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I10" t="n">
-        <v>38.67250990818521</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7151088594234</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L10" t="n">
-        <v>279.6026869745585</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M10" t="n">
-        <v>295.552956263964</v>
+        <v>285.9838492295949</v>
       </c>
       <c r="N10" t="n">
-        <v>471.6341805242525</v>
+        <v>471.6341805242515</v>
       </c>
       <c r="O10" t="n">
-        <v>634.3723839608027</v>
+        <v>634.3723839608017</v>
       </c>
       <c r="P10" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q10" t="n">
-        <v>746.7254979846282</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="R10" t="n">
-        <v>746.7254979846282</v>
+        <v>612.5614882768591</v>
       </c>
       <c r="S10" t="n">
-        <v>746.7254979846282</v>
+        <v>612.5614882768591</v>
       </c>
       <c r="T10" t="n">
-        <v>610.5691800683666</v>
+        <v>423.1417032603744</v>
       </c>
       <c r="U10" t="n">
-        <v>610.5691800683666</v>
+        <v>423.1417032603744</v>
       </c>
       <c r="V10" t="n">
-        <v>610.5691800683666</v>
+        <v>233.7219182438896</v>
       </c>
       <c r="W10" t="n">
-        <v>610.5691800683666</v>
+        <v>233.7219182438896</v>
       </c>
       <c r="X10" t="n">
-        <v>610.5691800683666</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="Y10" t="n">
-        <v>610.5691800683666</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>805.9975561066591</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C11" t="n">
-        <v>437.0350391662474</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D11" t="n">
-        <v>437.0350391662474</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>51.24678656800311</v>
+        <v>892.5704713767944</v>
       </c>
       <c r="F11" t="n">
-        <v>51.24678656800311</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="H11" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="I11" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J11" t="n">
-        <v>187.5281822362819</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>442.5171852816084</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>795.755353087291</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
-        <v>1220.470313923561</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N11" t="n">
-        <v>1656.671415230817</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O11" t="n">
-        <v>2055.22848474084</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P11" t="n">
-        <v>2360.886721764997</v>
+        <v>3018.302393296683</v>
       </c>
       <c r="Q11" t="n">
-        <v>2542.25058172385</v>
+        <v>3266.588755052365</v>
       </c>
       <c r="R11" t="n">
-        <v>2562.339328400155</v>
+        <v>3325.605821609168</v>
       </c>
       <c r="S11" t="n">
-        <v>2562.339328400155</v>
+        <v>3215.315153136263</v>
       </c>
       <c r="T11" t="n">
-        <v>2353.59368700598</v>
+        <v>3009.337405520485</v>
       </c>
       <c r="U11" t="n">
-        <v>2353.59368700598</v>
+        <v>2755.806928794321</v>
       </c>
       <c r="V11" t="n">
-        <v>2308.971141677787</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="W11" t="n">
-        <v>1956.202486407672</v>
+        <v>2071.975386180636</v>
       </c>
       <c r="X11" t="n">
-        <v>1582.736728146593</v>
+        <v>1698.509627919556</v>
       </c>
       <c r="Y11" t="n">
-        <v>1192.597396170781</v>
+        <v>1636.624422581789</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3041410966384</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8511118155114</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9167021542601</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6792471488045</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1446891756896</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>165.443278618252</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>71.67401812057899</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J12" t="n">
-        <v>238.4273302370161</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>684.9695361605189</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L12" t="n">
-        <v>979.6730931919907</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M12" t="n">
-        <v>1342.935112151211</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N12" t="n">
-        <v>1730.220240748156</v>
+        <v>1685.951113992582</v>
       </c>
       <c r="O12" t="n">
-        <v>2062.290675924318</v>
+        <v>2096.912393410636</v>
       </c>
       <c r="P12" t="n">
-        <v>2309.473409756615</v>
+        <v>2407.411984886739</v>
       </c>
       <c r="Q12" t="n">
-        <v>2562.339328400155</v>
+        <v>2565.053542533339</v>
       </c>
       <c r="R12" t="n">
-        <v>2562.339328400155</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2426.617474780096</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2232.610846175226</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.520742047137</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1769.368633815395</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.131277087193</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.27977688166</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1099.519478116707</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>281.0354892056666</v>
+        <v>333.7108202567937</v>
       </c>
       <c r="C13" t="n">
-        <v>281.0354892056666</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D13" t="n">
-        <v>281.0354892056666</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E13" t="n">
-        <v>281.0354892056666</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="F13" t="n">
-        <v>281.0354892056666</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="G13" t="n">
-        <v>281.0354892056666</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="H13" t="n">
-        <v>132.2965910691728</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="I13" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J13" t="n">
-        <v>76.715959553122</v>
+        <v>111.6347488791188</v>
       </c>
       <c r="K13" t="n">
-        <v>248.4064713020476</v>
+        <v>315.6219318279951</v>
       </c>
       <c r="L13" t="n">
-        <v>523.6376499693235</v>
+        <v>632.1817302764911</v>
       </c>
       <c r="M13" t="n">
-        <v>824.2194607096588</v>
+        <v>976.3387758760399</v>
       </c>
       <c r="N13" t="n">
-        <v>1123.088724245823</v>
+        <v>1317.747152581904</v>
       </c>
       <c r="O13" t="n">
-        <v>1383.126566999035</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P13" t="n">
-        <v>1582.113182171024</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q13" t="n">
-        <v>1636.446120074497</v>
+        <v>1927.294548088491</v>
       </c>
       <c r="R13" t="n">
-        <v>1533.86271359008</v>
+        <v>1837.464090846019</v>
       </c>
       <c r="S13" t="n">
-        <v>1337.233965749941</v>
+        <v>1837.464090846019</v>
       </c>
       <c r="T13" t="n">
-        <v>1114.255484944676</v>
+        <v>1615.697475415545</v>
       </c>
       <c r="U13" t="n">
-        <v>825.137147448514</v>
+        <v>1326.594608541189</v>
       </c>
       <c r="V13" t="n">
-        <v>570.4526592426272</v>
+        <v>1071.910120335302</v>
       </c>
       <c r="W13" t="n">
-        <v>281.0354892056666</v>
+        <v>782.4929502983412</v>
       </c>
       <c r="X13" t="n">
-        <v>281.0354892056666</v>
+        <v>554.5033994003238</v>
       </c>
       <c r="Y13" t="n">
-        <v>281.0354892056666</v>
+        <v>333.7108202567937</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1303.7189455667</v>
+        <v>2085.807325826216</v>
       </c>
       <c r="C14" t="n">
-        <v>934.756428626288</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D14" t="n">
-        <v>934.756428626288</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E14" t="n">
-        <v>934.756428626288</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F14" t="n">
-        <v>523.7705238366805</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G14" t="n">
-        <v>108.6858050925453</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>108.6858050925453</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.21592154951941</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>254.0744928369593</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>586.3643121319019</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L14" t="n">
-        <v>1035.500977900981</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1566.921495383894</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2111.55476080156</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2612.501248106872</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P14" t="n">
-        <v>3005.546484356407</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q14" t="n">
-        <v>3252.534341412639</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3310.79607747597</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S14" t="n">
-        <v>3200.22583852823</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T14" t="n">
-        <v>2994.194385163528</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U14" t="n">
-        <v>2740.662926950234</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="V14" t="n">
-        <v>2433.226772876747</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="W14" t="n">
-        <v>2080.458117606633</v>
+        <v>2862.54649786615</v>
       </c>
       <c r="X14" t="n">
-        <v>2080.458117606633</v>
+        <v>2862.54649786615</v>
       </c>
       <c r="Y14" t="n">
-        <v>1690.318785630821</v>
+        <v>2472.407165890338</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3156003142894</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8625710331625</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9281613719111</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>448.6907063664555</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1561483933406</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>165.7864839520668</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
-        <v>75.22119252365746</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.21592154951941</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>159.2853526912741</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K15" t="n">
-        <v>396.510659118347</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
-        <v>761.8119001858311</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M15" t="n">
-        <v>1207.458086537445</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1679.307846295919</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2088.738397943176</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2398.009445431869</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2554.82975395794</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2554.82975395794</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2425.269938942936</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2232.600479990497</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.532201264788</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>1769.380093033046</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.142736304844</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.291236099311</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1099.530937334358</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>136.0144039369431</v>
+        <v>152.0623554265549</v>
       </c>
       <c r="C16" t="n">
-        <v>136.0144039369431</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D16" t="n">
-        <v>136.0144039369431</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E16" t="n">
-        <v>136.0144039369431</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F16" t="n">
-        <v>136.0144039369431</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G16" t="n">
-        <v>136.0144039369431</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H16" t="n">
-        <v>136.0144039369431</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
-        <v>66.21592154951941</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>110.9572157501788</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>314.3177428179429</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
-        <v>630.0756374886839</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>973.3871879897964</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
-        <v>1313.970173580891</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>1612.537390213391</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>1844.49254089413</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1921.651183891643</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1831.573279765419</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S16" t="n">
-        <v>1639.79148866217</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T16" t="n">
-        <v>1418.001359273879</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U16" t="n">
-        <v>1128.898192221338</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V16" t="n">
-        <v>874.2137040154511</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W16" t="n">
-        <v>584.7965339784905</v>
+        <v>782.4929502983421</v>
       </c>
       <c r="X16" t="n">
-        <v>356.8069830804732</v>
+        <v>554.5033994003247</v>
       </c>
       <c r="Y16" t="n">
-        <v>136.0144039369431</v>
+        <v>333.7108202567946</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.167438673965</v>
+        <v>1918.208919851714</v>
       </c>
       <c r="C17" t="n">
-        <v>1976.204921733553</v>
+        <v>1549.246402911303</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>1190.980704304552</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>805.192451706308</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V17" t="n">
-        <v>3325.605821609171</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W17" t="n">
-        <v>2972.837166339056</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="X17" t="n">
-        <v>2972.837166339056</v>
+        <v>2304.808759915836</v>
       </c>
       <c r="Y17" t="n">
-        <v>2731.767278738087</v>
+        <v>2304.808759915836</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D18" t="n">
         <v>618.1564155387305</v>
@@ -5582,16 +5582,16 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064581</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
@@ -5606,22 +5606,22 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
         <v>2242.828302297192</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>883.4114536130577</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C19" t="n">
-        <v>714.4752706851508</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D19" t="n">
-        <v>564.358631272815</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E19" t="n">
-        <v>416.4455376904219</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
-        <v>269.5555901925115</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G19" t="n">
-        <v>101.8527535672305</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H19" t="n">
-        <v>101.8527535672305</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
         <v>111.6347488791189</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V19" t="n">
-        <v>1513.842048484845</v>
+        <v>1417.333933628612</v>
       </c>
       <c r="W19" t="n">
-        <v>1513.842048484845</v>
+        <v>1127.916763591651</v>
       </c>
       <c r="X19" t="n">
-        <v>1285.852497586827</v>
+        <v>899.9272126936338</v>
       </c>
       <c r="Y19" t="n">
-        <v>1065.059918443297</v>
+        <v>679.1346335501037</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>921.7704558796261</v>
+        <v>1642.972675199009</v>
       </c>
       <c r="C20" t="n">
-        <v>552.8079389392144</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D20" t="n">
-        <v>194.5422403324639</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="E20" t="n">
-        <v>66.51211643218342</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F20" t="n">
-        <v>66.51211643218342</v>
+        <v>821.1650657389511</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5770,7 +5770,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
@@ -5782,22 +5782,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450754</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.975386180639</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.50962791956</v>
+        <v>2029.572515263131</v>
       </c>
       <c r="Y20" t="n">
-        <v>1308.370295943748</v>
+        <v>2029.572515263131</v>
       </c>
     </row>
     <row r="21">
@@ -5822,22 +5822,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5849,10 +5849,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.51211643218342</v>
+        <v>463.6594280995009</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218342</v>
+        <v>294.723245171594</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218342</v>
+        <v>294.723245171594</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218342</v>
+        <v>294.723245171594</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218342</v>
+        <v>294.723245171594</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5931,31 +5931,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S22" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T22" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U22" t="n">
-        <v>1134.908724368016</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V22" t="n">
-        <v>880.2242361621296</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W22" t="n">
-        <v>590.8070661251691</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X22" t="n">
-        <v>362.8175152271517</v>
+        <v>866.1004720732708</v>
       </c>
       <c r="Y22" t="n">
-        <v>142.0249360836216</v>
+        <v>645.3078929297407</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1091.323932370578</v>
+        <v>1502.309837160186</v>
       </c>
       <c r="C23" t="n">
-        <v>722.3614154301667</v>
+        <v>1133.347320219774</v>
       </c>
       <c r="D23" t="n">
-        <v>364.0957168234162</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E23" t="n">
-        <v>364.0957168234162</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F23" t="n">
         <v>364.0957168234162</v>
@@ -5983,58 +5983,58 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3178.890882011441</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U23" t="n">
-        <v>2925.360405285277</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V23" t="n">
-        <v>2594.297517941706</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W23" t="n">
-        <v>2241.528862671592</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X23" t="n">
-        <v>1868.063104410512</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y23" t="n">
-        <v>1477.9237724347</v>
+        <v>1888.909677224308</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6074,7 +6074,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1633.759572880768</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C25" t="n">
-        <v>1464.823389952861</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D25" t="n">
-        <v>1464.823389952861</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E25" t="n">
-        <v>1464.823389952861</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F25" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G25" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L25" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N25" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P25" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>3044.089480193524</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>2822.32286476305</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>2533.219997888694</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V25" t="n">
-        <v>2278.535509682807</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W25" t="n">
-        <v>1989.118339645846</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X25" t="n">
-        <v>1761.128788747829</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y25" t="n">
-        <v>1633.759572880768</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1944.904841306683</v>
+        <v>1891.353293732295</v>
       </c>
       <c r="C26" t="n">
-        <v>1575.942324366272</v>
+        <v>1891.353293732295</v>
       </c>
       <c r="D26" t="n">
-        <v>1575.942324366272</v>
+        <v>1533.087595125544</v>
       </c>
       <c r="E26" t="n">
-        <v>1190.154071768027</v>
+        <v>1147.2993425273</v>
       </c>
       <c r="F26" t="n">
-        <v>779.1681669784198</v>
+        <v>736.3134377376923</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>321.2409875826888</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912088</v>
@@ -6250,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W26" t="n">
-        <v>2331.504681370805</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X26" t="n">
-        <v>2331.504681370805</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y26" t="n">
-        <v>2331.504681370805</v>
+        <v>2277.953133796416</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
         <v>618.1564155387305</v>
@@ -6293,46 +6293,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
         <v>2242.828302297192</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>994.2880032601528</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C28" t="n">
-        <v>825.3518203322459</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D28" t="n">
-        <v>675.2351809199101</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E28" t="n">
-        <v>527.322087337517</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F28" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6414,22 +6414,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T28" t="n">
-        <v>1624.71859813194</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U28" t="n">
-        <v>1624.71859813194</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V28" t="n">
-        <v>1624.71859813194</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W28" t="n">
-        <v>1624.71859813194</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X28" t="n">
-        <v>1396.729047233923</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y28" t="n">
-        <v>1175.936468090393</v>
+        <v>234.2149530574644</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1559.116588708439</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C29" t="n">
-        <v>1190.154071768027</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D29" t="n">
-        <v>1190.154071768027</v>
+        <v>971.2814123723965</v>
       </c>
       <c r="E29" t="n">
-        <v>1190.154071768027</v>
+        <v>585.4931597741522</v>
       </c>
       <c r="F29" t="n">
-        <v>779.1681669784198</v>
+        <v>585.4931597741522</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>170.4207096191487</v>
       </c>
       <c r="H29" t="n">
         <v>66.5121164321834</v>
@@ -6463,16 +6463,16 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060171</v>
@@ -6490,25 +6490,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>2994.542934265599</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>2641.774278995485</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X29" t="n">
-        <v>2268.308520734405</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y29" t="n">
-        <v>1945.716428772561</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>994.2880032601528</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C31" t="n">
-        <v>825.3518203322459</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D31" t="n">
-        <v>675.2351809199101</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E31" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
         <v>66.5121164321834</v>
@@ -6654,19 +6654,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U31" t="n">
-        <v>1927.294548088493</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V31" t="n">
-        <v>1914.135768168901</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W31" t="n">
-        <v>1624.71859813194</v>
+        <v>1257.708832206268</v>
       </c>
       <c r="X31" t="n">
-        <v>1396.729047233923</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y31" t="n">
-        <v>1175.936468090393</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2196.097994299122</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C32" t="n">
-        <v>1827.13547735871</v>
+        <v>942.9472709150252</v>
       </c>
       <c r="D32" t="n">
-        <v>1468.86977875196</v>
+        <v>584.6815723082748</v>
       </c>
       <c r="E32" t="n">
-        <v>1083.081526153716</v>
+        <v>198.8933197100305</v>
       </c>
       <c r="F32" t="n">
-        <v>672.0956213641082</v>
+        <v>198.8933197100305</v>
       </c>
       <c r="G32" t="n">
-        <v>257.0231712091046</v>
+        <v>198.8933197100305</v>
       </c>
       <c r="H32" t="n">
         <v>66.5121164321834</v>
@@ -6700,7 +6700,7 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
         <v>589.2106210810553</v>
@@ -6727,25 +6727,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W32" t="n">
-        <v>2972.837166339056</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X32" t="n">
-        <v>2972.837166339056</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y32" t="n">
-        <v>2582.697834363244</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="33">
@@ -6782,10 +6782,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1091.613680441807</v>
+        <v>753.0765981364621</v>
       </c>
       <c r="C34" t="n">
-        <v>922.6774975139006</v>
+        <v>584.1404152085552</v>
       </c>
       <c r="D34" t="n">
-        <v>772.5608581015648</v>
+        <v>434.0237757962194</v>
       </c>
       <c r="E34" t="n">
-        <v>624.6477645191717</v>
+        <v>286.1106822138263</v>
       </c>
       <c r="F34" t="n">
-        <v>477.7578170212613</v>
+        <v>139.2207347159159</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959802</v>
+        <v>139.2207347159159</v>
       </c>
       <c r="H34" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
         <v>66.5121164321834</v>
@@ -6891,19 +6891,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U34" t="n">
-        <v>1927.294548088493</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V34" t="n">
-        <v>1927.294548088493</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W34" t="n">
-        <v>1722.044275313594</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="X34" t="n">
-        <v>1494.054724415577</v>
+        <v>1155.517642110232</v>
       </c>
       <c r="Y34" t="n">
-        <v>1273.262145272047</v>
+        <v>934.7250629667018</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1519.109083729354</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C35" t="n">
-        <v>1150.146566788942</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D35" t="n">
-        <v>791.8808681821918</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E35" t="n">
-        <v>406.0926155839475</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>406.0926155839475</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U35" t="n">
-        <v>3119.628073993392</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V35" t="n">
-        <v>2788.565186649821</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W35" t="n">
-        <v>2435.796531379707</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X35" t="n">
-        <v>2062.330773118627</v>
+        <v>2009.938018899768</v>
       </c>
       <c r="Y35" t="n">
-        <v>1905.708923793476</v>
+        <v>1619.798686923957</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>213.4020639300938</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C37" t="n">
-        <v>213.4020639300938</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D37" t="n">
-        <v>213.4020639300938</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E37" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7119,28 +7119,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U37" t="n">
-        <v>1134.908724368016</v>
+        <v>1539.929030488741</v>
       </c>
       <c r="V37" t="n">
-        <v>880.2242361621296</v>
+        <v>1539.929030488741</v>
       </c>
       <c r="W37" t="n">
-        <v>590.8070661251691</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="X37" t="n">
-        <v>362.8175152271517</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y37" t="n">
-        <v>213.4020639300938</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1887.813801820605</v>
+        <v>1559.116588708439</v>
       </c>
       <c r="C38" t="n">
-        <v>1518.851284880193</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="D38" t="n">
-        <v>1160.585586273442</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E38" t="n">
-        <v>817.078520373555</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F38" t="n">
-        <v>406.0926155839475</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7198,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U38" t="n">
-        <v>2961.784676410101</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V38" t="n">
-        <v>2630.721789066531</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W38" t="n">
-        <v>2277.953133796416</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X38" t="n">
-        <v>2277.953133796416</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y38" t="n">
-        <v>1887.813801820605</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="39">
@@ -7250,16 +7250,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2489.924953962484</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C40" t="n">
-        <v>2320.988771034577</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D40" t="n">
-        <v>2170.872131622242</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.959038039849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F40" t="n">
-        <v>1876.069090541939</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>1708.366253916658</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>1562.149067134515</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.60582160917</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>3325.60582160917</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>3325.60582160917</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V40" t="n">
-        <v>3325.60582160917</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W40" t="n">
-        <v>3120.355548834272</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X40" t="n">
-        <v>2892.365997936254</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y40" t="n">
-        <v>2671.573418792724</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1295.236214140706</v>
+        <v>1767.878520285688</v>
       </c>
       <c r="C41" t="n">
-        <v>926.2736972002947</v>
+        <v>1398.916003345277</v>
       </c>
       <c r="D41" t="n">
-        <v>568.0079985935442</v>
+        <v>1040.650304738526</v>
       </c>
       <c r="E41" t="n">
-        <v>568.0079985935442</v>
+        <v>654.862052140282</v>
       </c>
       <c r="F41" t="n">
-        <v>568.0079985935442</v>
+        <v>243.8761473506744</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>243.8761473506744</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450754</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.97538618064</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X41" t="n">
-        <v>2071.97538618064</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y41" t="n">
-        <v>1681.836054204828</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="42">
@@ -7481,22 +7481,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1091.613680441807</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C43" t="n">
-        <v>922.6774975139006</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D43" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7596,25 +7596,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V43" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W43" t="n">
-        <v>1416.425065783662</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X43" t="n">
-        <v>1416.425065783662</v>
+        <v>707.3324606755107</v>
       </c>
       <c r="Y43" t="n">
-        <v>1195.632486640132</v>
+        <v>529.0179941377679</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1698.50962791956</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C44" t="n">
-        <v>1329.547110979148</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D44" t="n">
-        <v>971.2814123723974</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E44" t="n">
-        <v>585.4931597741531</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
@@ -7678,22 +7678,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.50962791956</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y44" t="n">
-        <v>1698.50962791956</v>
+        <v>1590.514489367197</v>
       </c>
     </row>
     <row r="45">
@@ -7718,22 +7718,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1464.823389952862</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C46" t="n">
-        <v>1464.823389952862</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D46" t="n">
-        <v>1464.823389952862</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E46" t="n">
-        <v>1464.823389952862</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F46" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P46" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>3150.225125372327</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>2928.458509941853</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U46" t="n">
-        <v>2639.355643067496</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V46" t="n">
-        <v>2384.671154861609</v>
+        <v>1372.22619386346</v>
       </c>
       <c r="W46" t="n">
-        <v>2095.253984824649</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="X46" t="n">
-        <v>1867.264433926631</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y46" t="n">
-        <v>1646.471854783101</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.091680627731961</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7999,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9757828529239987</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>23.23168261818574</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>22.19986892380261</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>137.0300084036729</v>
+        <v>98.29368706161254</v>
       </c>
       <c r="M4" t="n">
-        <v>139.4864436873943</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>131.6729248303088</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O4" t="n">
-        <v>153.1837627278771</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>26.53509868619516</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.324764167328823</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>22.77491242827335</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8376,19 +8376,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>21.72895798776032</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>29.54896956890281</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>141.0220468163143</v>
+        <v>152.8089368603741</v>
       </c>
       <c r="N7" t="n">
-        <v>133.2236354305728</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O7" t="n">
-        <v>154.7818223541829</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8613,16 +8613,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L10" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>82.97369176944322</v>
       </c>
       <c r="N10" t="n">
-        <v>154.1946371899316</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>138.9393975111057</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.93778120154988</v>
+        <v>2.345373895096259e-12</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.5463950602909904</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>238.0586849924383</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>220.5977350999653</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G2" t="n">
-        <v>306.9464577515497</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H2" t="n">
-        <v>318.4846998108122</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>131.4600546760548</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>162.3156188332455</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>214.1238810212347</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1816877488572</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>215.9238626460559</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.5627819850113</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.85802697882505</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.2469034849667</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>101.6444647650348</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>51.64041629783932</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>32.07159191921401</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
-        <v>6.638896330325053</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.7446060180399</v>
+        <v>7.884010625681384</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8692364442482</v>
+        <v>60.69123123399646</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W3" t="n">
-        <v>107.0198264898773</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>78.25281778145035</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22707,28 +22707,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7458913518889574</v>
+        <v>70.83667545145217</v>
       </c>
       <c r="G4" t="n">
-        <v>22.39645861721769</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>9.378033466811615</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3728119839713884</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>28.36014035361794</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>9.177839155320683</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>135.9554396389582</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>207.9945896499623</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>224.0173974919776</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2688822253891</v>
+        <v>98.73949432713042</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971605</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,19 +22792,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>235.0842489835532</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>304.4576307211213</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H5" t="n">
-        <v>171.5460391182792</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>131.1116955327426</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>4.968575157639741</v>
       </c>
       <c r="S5" t="n">
-        <v>162.1097117201341</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>214.0843260727917</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1809648714442</v>
+        <v>63.64367339871026</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510929</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>239.391817567345</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22877,13 +22877,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.2420688160423</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>23.72966808150181</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.77141835213729</v>
+        <v>26.91122581714234</v>
       </c>
       <c r="S6" t="n">
-        <v>4.378130057857305</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>195.7251189095246</v>
+        <v>7.884010625681157</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8689183739243</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>85.95446606071673</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>104.8488620722111</v>
+        <v>98.24706305964952</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22947,7 +22947,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>1.769351929503813</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>46.63375341538485</v>
+        <v>1.82939802661943</v>
       </c>
       <c r="H7" t="n">
-        <v>7.171032202866087</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,25 +22986,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>8.838436914954059</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R7" t="n">
-        <v>135.7731919480611</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>207.923953009556</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T7" t="n">
-        <v>224.0000791711685</v>
+        <v>36.19408632378003</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2686611404426</v>
+        <v>98.73949432713022</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027094</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>195.2082544971605</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>4.96857515763991</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>59.63664302379331</v>
+        <v>25.91829388988691</v>
       </c>
       <c r="U8" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X8" t="n">
-        <v>182.2055135121489</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>198.7123514897335</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23108,19 +23108,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>41.95250282950167</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>48.77881175550655</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>26.91122581714234</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>195.4095977920012</v>
+        <v>7.884010625681384</v>
       </c>
       <c r="U9" t="n">
-        <v>38.3381812437708</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>64.16939599459948</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X9" t="n">
-        <v>190.3706927183324</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.15710861098424</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23184,13 +23184,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.0019352027142</v>
@@ -23199,10 +23199,10 @@
         <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>88.92491875300109</v>
+        <v>36.19408632378023</v>
       </c>
       <c r="U10" t="n">
         <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750814</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>196.7025699974788</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>31.05906618577492</v>
       </c>
     </row>
     <row r="11">
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>301.0185525624054</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>65.70991267247047</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>283.5759385952237</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>324.971585371664</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>49.1540669588328</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3066000448042</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>24.55728874774258</v>
+        <v>96.35242040983813</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>215.1895819463454</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.7321536188797</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>23.39046593738311</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>82.55208449420006</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0312564930842</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.803454668018</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>27.41576610317043</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>86.50423947378158</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>147.5787499310941</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>61.3651896461415</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>245.5267622862048</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>313.2424457679447</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>255.1805474109841</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>84.85180572133252</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24217,7 +24217,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>167.857941726044</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>205.0028867892848</v>
       </c>
     </row>
     <row r="24">
@@ -24366,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>128.1651665445291</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>92.48912964370393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>42.42618194832016</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>256.9340022382643</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24654,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>198.699936820671</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>91.26811680410439</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>191.7382571322248</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>66.87176761382756</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24894,19 +24894,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>239.1104512034317</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>161.9826211426291</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>106.0018201581684</v>
+        <v>163.5503731422518</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>72.77348281342557</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>83.32522828944164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>308.3141070704064</v>
       </c>
       <c r="Y35" t="n">
-        <v>231.1823078241534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>122.2689250580276</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>70.66335656800743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>379.9774995416232</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>41.85837483137317</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>16.14213605696602</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,19 +25599,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>250.6254964739526</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>119.0173737780143</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>76.85336204559565</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>42.05333147972948</v>
       </c>
     </row>
     <row r="44">
@@ -25876,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>304.0065384866149</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>75.40478134959443</v>
       </c>
     </row>
     <row r="45">
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>178.6008361781004</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>444669.2744512011</v>
+        <v>480321.4544660314</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>446453.4711934129</v>
+        <v>480321.4544660316</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>480321.4544660317</v>
+        <v>480321.4544660313</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>814792.4267271128</v>
+        <v>896351.5607645907</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>894765.5924020971</v>
+        <v>896351.560764591</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>896351.5607645913</v>
+        <v>896351.5607645912</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>896351.5607645911</v>
+        <v>896351.5607645912</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>896351.560764591</v>
+        <v>896351.5607645912</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>896351.5607645914</v>
+        <v>896351.5607645913</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>896351.5607645912</v>
+        <v>896351.5607645911</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>896351.5607645911</v>
+        <v>896351.5607645913</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>896351.5607645913</v>
+        <v>896351.5607645912</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>896351.5607645912</v>
+        <v>896351.5607645911</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>150291.335052541</v>
+        <v>162397.4547967403</v>
       </c>
       <c r="C2" t="n">
-        <v>150913.5375162088</v>
+        <v>162397.4547967404</v>
       </c>
       <c r="D2" t="n">
         <v>162397.4547967404</v>
       </c>
       <c r="E2" t="n">
-        <v>275374.4674448775</v>
+        <v>306897.3890738286</v>
       </c>
       <c r="F2" t="n">
-        <v>306285.7463411665</v>
+        <v>306897.3890738286</v>
       </c>
       <c r="G2" t="n">
-        <v>306897.3890738288</v>
+        <v>306897.3890738287</v>
       </c>
       <c r="H2" t="n">
         <v>306897.3890738287</v>
@@ -26337,25 +26337,25 @@
         <v>306897.3890738286</v>
       </c>
       <c r="J2" t="n">
+        <v>306897.3890738287</v>
+      </c>
+      <c r="K2" t="n">
         <v>306897.3890738286</v>
       </c>
-      <c r="K2" t="n">
-        <v>306897.3890738288</v>
-      </c>
       <c r="L2" t="n">
-        <v>306897.3890738288</v>
+        <v>306897.3890738287</v>
       </c>
       <c r="M2" t="n">
-        <v>306897.3890738286</v>
+        <v>306897.3890738287</v>
       </c>
       <c r="N2" t="n">
         <v>306897.3890738286</v>
       </c>
       <c r="O2" t="n">
-        <v>306897.3890738286</v>
+        <v>306897.3890738288</v>
       </c>
       <c r="P2" t="n">
-        <v>306897.3890738286</v>
+        <v>306897.3890738287</v>
       </c>
     </row>
     <row r="3">
@@ -26365,49 +26365,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>539761.9848596588</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>2748.132307288645</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>43803.80384074492</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>445061.6638164769</v>
+        <v>627134.6436336669</v>
       </c>
       <c r="F3" t="n">
-        <v>174306.5337859694</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>3363.798545983959</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>37853.38669203821</v>
+        <v>49064.9447285445</v>
       </c>
       <c r="K3" t="n">
-        <v>558.7367702458995</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10295.60674904879</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>112904.1760744624</v>
+        <v>160456.4418678773</v>
       </c>
       <c r="N3" t="n">
-        <v>45829.31654522303</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>890.9949338497714</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.881082880572649e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10619.76180294972</v>
+        <v>11335.86481693335</v>
       </c>
       <c r="C4" t="n">
-        <v>10608.36731631682</v>
+        <v>11335.86481693335</v>
       </c>
       <c r="D4" t="n">
         <v>11335.86481693335</v>
       </c>
       <c r="E4" t="n">
-        <v>19788.00270570974</v>
+        <v>10380.34706710382</v>
       </c>
       <c r="F4" t="n">
-        <v>10558.76396175957</v>
+        <v>10380.34706710378</v>
       </c>
       <c r="G4" t="n">
+        <v>10380.34706710378</v>
+      </c>
+      <c r="H4" t="n">
         <v>10380.3470671038</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10380.34706710378</v>
       </c>
       <c r="I4" t="n">
         <v>10380.34706710378</v>
@@ -26469,31 +26469,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53538.12534878444</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>53719.11977902089</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="E5" t="n">
-        <v>59310.17243984472</v>
+        <v>74306.34056139324</v>
       </c>
       <c r="F5" t="n">
-        <v>74015.3682537726</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="J5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="J5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
         <v>74306.34056139328</v>
@@ -26502,13 +26502,13 @@
         <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="N5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="O5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="N5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="O5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-453628.5369588519</v>
+        <v>-508785.076377218</v>
       </c>
       <c r="C6" t="n">
-        <v>83837.91811358245</v>
+        <v>82571.82614362735</v>
       </c>
       <c r="D6" t="n">
-        <v>50271.98572744855</v>
+        <v>82571.82614362774</v>
       </c>
       <c r="E6" t="n">
-        <v>-248785.3715171539</v>
+        <v>-408400.1314863965</v>
       </c>
       <c r="F6" t="n">
-        <v>47405.08033966493</v>
+        <v>218734.5121472702</v>
       </c>
       <c r="G6" t="n">
-        <v>218846.9028993477</v>
+        <v>218734.5121472706</v>
       </c>
       <c r="H6" t="n">
-        <v>222210.7014453314</v>
+        <v>218734.5121472705</v>
       </c>
       <c r="I6" t="n">
-        <v>222210.7014453316</v>
+        <v>218734.5121472703</v>
       </c>
       <c r="J6" t="n">
-        <v>184357.3147532934</v>
+        <v>169669.5674187261</v>
       </c>
       <c r="K6" t="n">
-        <v>221651.9646750858</v>
+        <v>218734.5121472705</v>
       </c>
       <c r="L6" t="n">
-        <v>211915.0946962829</v>
+        <v>218734.5121472706</v>
       </c>
       <c r="M6" t="n">
-        <v>109306.5253708691</v>
+        <v>58278.07027939328</v>
       </c>
       <c r="N6" t="n">
-        <v>176381.3849001086</v>
+        <v>218734.5121472705</v>
       </c>
       <c r="O6" t="n">
-        <v>221319.7065114818</v>
+        <v>218734.5121472707</v>
       </c>
       <c r="P6" t="n">
-        <v>222210.7014453316</v>
+        <v>218734.5121472704</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>509.8291662011503</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>512.0768631572207</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
-        <v>934.0648921175393</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1086.755407162286</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>144.6751566710423</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>146.8461210887085</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
-        <v>640.5848321000389</v>
+        <v>831.401455402292</v>
       </c>
       <c r="F4" t="n">
-        <v>827.6990193689926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022925</v>
@@ -26822,16 +26822,16 @@
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="N4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="O4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="N4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="P4" t="n">
-        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>509.8291662011503</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>2.247696956070399</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>36.39307775568409</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>385.5949512046345</v>
+        <v>541.306759680393</v>
       </c>
       <c r="F3" t="n">
-        <v>152.6905150447471</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>3.0212934310116</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,49 +27011,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>144.6751566710423</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>2.170964417666255</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>40.67946607761158</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>453.0592449337187</v>
+        <v>643.8758682359721</v>
       </c>
       <c r="F4" t="n">
-        <v>187.1141872689537</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.702436033300046</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>144.6751566710424</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="K4" t="n">
-        <v>2.170964417666141</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761158</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>453.0592449337187</v>
+        <v>643.8758682359725</v>
       </c>
       <c r="N4" t="n">
-        <v>187.1141872689537</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.702436033300387</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27257,25 +27257,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>144.6751566710423</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>2.170964417666255</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761158</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>453.0592449337187</v>
+        <v>643.8758682359721</v>
       </c>
       <c r="N4" t="n">
-        <v>187.1141872689537</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.702436033300046</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.049564487240804</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>20.99010230495489</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>79.01583489435116</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>173.9542238989543</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7122886438576</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>323.4366478202534</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>359.8855902702221</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>365.708915369595</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>345.3285584995942</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>294.7299352208368</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>221.3299070215255</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>128.7459552216403</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>46.70445075299986</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>8.971968542896622</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1639651589792643</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.096613678243984</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>10.59097947146163</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>37.75621655357576</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>103.6059440484809</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>177.0790604908279</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>238.1046497432826</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>277.8568955796269</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>276.0168687543756</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>220.8347924053682</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>209.4051154534499</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>68.08624223342912</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>20.36911810247047</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.42012267678167</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07214563672657791</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9193640701987955</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.17398236958566</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>27.64778494743288</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>64.99903976305484</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>106.8133892467328</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>136.68436367301</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>144.114496931253</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>140.6877763059667</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>129.947932395008</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>111.1929053629525</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>76.9842040963737</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>41.33795173821129</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>16.02200838700991</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>3.928191936303944</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05014713110175254</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.058600454903398</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>21.08264190877943</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I5" t="n">
-        <v>79.36419403766334</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J5" t="n">
-        <v>174.7211403593575</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K5" t="n">
-        <v>261.8616976154183</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L5" t="n">
-        <v>324.8625912871683</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M5" t="n">
-        <v>361.4722271270566</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N5" t="n">
-        <v>367.3212256695509</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O5" t="n">
-        <v>346.8510173961052</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P5" t="n">
-        <v>296.0293186656775</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744495</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R5" t="n">
-        <v>129.3135608253257</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S5" t="n">
-        <v>46.91035786611123</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T5" t="n">
-        <v>9.011523491339631</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1646880363922718</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.101448347168362</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H6" t="n">
-        <v>10.63767219502076</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>37.92267335645456</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J6" t="n">
-        <v>104.0627142383933</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>177.8597534986735</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>239.1543878358322</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M6" t="n">
-        <v>279.0818904206852</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N6" t="n">
-        <v>239.4065863458217</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O6" t="n">
-        <v>262.0625810914128</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P6" t="n">
-        <v>210.3283251711234</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>68.38641580050584</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S6" t="n">
-        <v>20.45891995727197</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T6" t="n">
-        <v>4.439609785297034</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07246370705055014</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9234172942179388</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H7" t="n">
-        <v>8.210019215864953</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I7" t="n">
-        <v>27.76967644793584</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J7" t="n">
-        <v>65.28560270120828</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K7" t="n">
-        <v>107.2843001827751</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L7" t="n">
-        <v>137.2869675421834</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>144.7498582199993</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N7" t="n">
-        <v>141.3080301233689</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>130.5208371863684</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P7" t="n">
-        <v>111.6831243843223</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>77.32360633674033</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R7" t="n">
-        <v>41.52019942910841</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S7" t="n">
-        <v>16.09264502741626</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>3.945510257113011</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05036821604825127</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,46 +31518,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O8" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,13 +31594,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
         <v>111.4584056340083</v>
@@ -31609,34 +31609,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S9" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K10" t="n">
         <v>114.9089482765069</v>
@@ -31697,25 +31697,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647912</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S10" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.75503474218106</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H11" t="n">
-        <v>38.45624955336179</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I11" t="n">
-        <v>144.7659768979354</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J11" t="n">
-        <v>318.70387994919</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K11" t="n">
-        <v>477.6545005857143</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L11" t="n">
-        <v>592.5726450767381</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M11" t="n">
-        <v>659.3512441730005</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N11" t="n">
-        <v>670.0202366342224</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O11" t="n">
-        <v>632.6811099166596</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P11" t="n">
-        <v>539.9786897190645</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q11" t="n">
-        <v>405.5015080147052</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R11" t="n">
-        <v>235.8772011235312</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S11" t="n">
-        <v>85.56785418745099</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T11" t="n">
-        <v>16.4376645838976</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.00912071134716</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H12" t="n">
-        <v>19.40387634380021</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I12" t="n">
-        <v>69.17367361436496</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J12" t="n">
-        <v>189.8178475575841</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>324.4289352178438</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L12" t="n">
-        <v>436.2347404177244</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M12" t="n">
-        <v>509.0653662040589</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N12" t="n">
-        <v>522.5388116762073</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O12" t="n">
-        <v>478.0209264405675</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P12" t="n">
-        <v>383.6539365378626</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q12" t="n">
-        <v>256.4624964168761</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
-        <v>124.7417227624141</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S12" t="n">
-        <v>37.31853601997902</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T12" t="n">
-        <v>8.098166376000172</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.684379313654579</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H13" t="n">
-        <v>14.97566335231072</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I13" t="n">
-        <v>50.65387972335772</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J13" t="n">
-        <v>119.0856174753787</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K13" t="n">
-        <v>195.6942511682319</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L13" t="n">
-        <v>250.4212663227908</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M13" t="n">
-        <v>264.0341136849627</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N13" t="n">
-        <v>257.7559726067959</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O13" t="n">
-        <v>238.0793597154673</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P13" t="n">
-        <v>203.7180217169137</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q13" t="n">
-        <v>141.0437987097484</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R13" t="n">
-        <v>75.73581895759587</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S13" t="n">
-        <v>29.35413767523479</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T13" t="n">
-        <v>7.196893431069562</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.368865958441349</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.74264849688748</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.4307048628103</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>370.8020371402618</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>555.7361331610842</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>689.4398147367339</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>767.1346347251651</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>779.5476751295867</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>736.1047642553355</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>628.2483859063145</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>471.7883737696336</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>274.4357762619417</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.55553302798235</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
-        <v>19.12471073307702</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3495092766753079</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.337549366349069</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.57580572237127</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.48141458701839</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>220.8471530724794</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>377.462960617867</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>507.5455323732924</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>592.281696903446</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>607.9576310312871</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>556.1624582295524</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>446.3694048776569</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.3861261325584</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
-        <v>145.133108903673</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.41895423898378</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.42196433190699</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1537861425229651</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.959722865374615</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>17.42371783942159</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>58.93421126053843</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>138.5524065819853</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>227.6841656317052</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>291.3573430939678</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>307.1954669786771</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>299.8910453895538</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>276.9979191894956</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.0195727358533</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.1000664815053</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.11626629220765</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.15262484475577</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.373361333873351</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1068939744749791</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563583</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33502,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33973,7 +33973,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33985,7 +33985,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -34213,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34453,7 +34453,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>40.62243759887707</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>87.67023285026619</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>129.5393570429493</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>136.2958517730041</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>115.2303470779075</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>63.49693946556727</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>39.23762151646886</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>99.55026996340837</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>135.7228616576086</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>144.6751566710423</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>78.23854796092378</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>75.43070803911962</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,19 +34859,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>92.63945645062401</v>
       </c>
       <c r="L4" t="n">
-        <v>138.8296957954447</v>
+        <v>110.4529028080733</v>
       </c>
       <c r="M4" t="n">
-        <v>144.6751566710423</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N4" t="n">
-        <v>144.6751566710423</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O4" t="n">
-        <v>144.6751566710423</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K5" t="n">
-        <v>41.77184657043779</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L5" t="n">
-        <v>89.09617631718106</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M5" t="n">
-        <v>131.1259938997839</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N5" t="n">
-        <v>137.90816207296</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O5" t="n">
-        <v>116.7528059744185</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P5" t="n">
-        <v>64.79632291040798</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>40.01831452431455</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L6" t="n">
-        <v>100.600008055958</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M6" t="n">
-        <v>136.9478564986669</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N6" t="n">
-        <v>108.0648742624884</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O6" t="n">
-        <v>119.4663366469683</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P6" t="n">
-        <v>76.35391775679312</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>92.63945645062405</v>
       </c>
       <c r="L7" t="n">
-        <v>31.95126082984794</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M7" t="n">
-        <v>146.8461210887085</v>
+        <v>168.9203199809857</v>
       </c>
       <c r="N7" t="n">
-        <v>146.8461210887085</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="O7" t="n">
-        <v>146.8461210887085</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P7" t="n">
-        <v>108.9616836492158</v>
+        <v>116.8989542469473</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656916001</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L9" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>92.63945645062405</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>174.6339172880153</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061158</v>
+        <v>99.08507489005474</v>
       </c>
       <c r="N10" t="n">
-        <v>177.8598224851399</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O10" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P10" t="n">
-        <v>116.8989542469473</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>137.6579754225037</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K11" t="n">
-        <v>257.5646495407338</v>
+        <v>337.1912865554002</v>
       </c>
       <c r="L11" t="n">
-        <v>356.8062301067509</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M11" t="n">
-        <v>429.0050109457278</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N11" t="n">
-        <v>440.6071730376315</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O11" t="n">
-        <v>402.5828984949728</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P11" t="n">
-        <v>308.745693963795</v>
+        <v>398.7619862193714</v>
       </c>
       <c r="Q11" t="n">
-        <v>183.1958181402557</v>
+        <v>250.7943048037192</v>
       </c>
       <c r="R11" t="n">
-        <v>20.29166330939907</v>
+        <v>59.61319854222461</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>189.0712562313263</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K12" t="n">
-        <v>451.0527332560634</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L12" t="n">
-        <v>297.6803606378502</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M12" t="n">
-        <v>366.9313322820406</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N12" t="n">
-        <v>391.197099592874</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O12" t="n">
-        <v>335.4246819961231</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P12" t="n">
-        <v>249.6795291235323</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q12" t="n">
-        <v>255.4201198419603</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>25.72643735870595</v>
+        <v>45.57841661306614</v>
       </c>
       <c r="K13" t="n">
-        <v>173.4247593423491</v>
+        <v>206.0476595443194</v>
       </c>
       <c r="L13" t="n">
-        <v>278.011291583107</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M13" t="n">
-        <v>303.6179906468033</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N13" t="n">
-        <v>301.8881449860245</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O13" t="n">
-        <v>262.664487629507</v>
+        <v>302.3531302226396</v>
       </c>
       <c r="P13" t="n">
-        <v>200.9965809818072</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q13" t="n">
-        <v>54.88175545805406</v>
+        <v>78.39423853789354</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>189.7561326135755</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>335.6462821161037</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>453.6733997667466</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>536.7884014978924</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>550.1346115329957</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>506.0065528336487</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>397.015390151045</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>249.4826838951841</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>58.85023844780955</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.00952640581272</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>239.621521643508</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>368.9911525934182</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>450.1476629814277</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>476.6159189479538</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>413.5662137851079</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>312.3949974633267</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.4043520465369</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19322646531248</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>205.4146738058223</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>318.9473683542839</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>346.7793439405177</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.0232177687824</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>301.5830471035353</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>234.2981320007468</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.93802322981087</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37633,7 +37633,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37861,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38101,7 +38101,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>413418.1463002113</v>
+        <v>459482.7128198496</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12535336.02914634</v>
+        <v>12541457.66185159</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7622616.185043053</v>
+        <v>7722227.211598422</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9163921.010886353</v>
+        <v>9111986.142700547</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>20.55555711582389</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>108.7865063391108</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>153.8072380324131</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
     </row>
     <row r="3">
@@ -788,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>129.3420634549347</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="U3" t="n">
-        <v>165.1725371760945</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>74.58437257147908</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="U4" t="n">
-        <v>187.5255871663199</v>
+        <v>129.3420634549347</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>6.396723986041543</v>
+        <v>15.8745106541563</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>160.4115946525719</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="U5" t="n">
-        <v>187.5255871663201</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>187.5255871663201</v>
+        <v>137.3982828274878</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.29588533250677</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>146.330026528459</v>
       </c>
       <c r="T6" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>153.4479201012701</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.1725371760947</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>187.5255871663201</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="U7" t="n">
-        <v>187.5255871663201</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="W7" t="n">
-        <v>187.5255871663201</v>
+        <v>146.9019614358876</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>6.396723986041062</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.396723986041431</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T8" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>168.1418180698705</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1226,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>94.21128653627366</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>26.91122581714242</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1274,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1335,31 +1335,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.343082173845801</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>13.21398198403602</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="T10" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X10" t="n">
-        <v>29.00708539155832</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9338715566937</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881759</v>
+        <v>109.464536558263</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9961436311612</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>217.1837846979971</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>61.2663532843896</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>135.0059677968616</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.65963851412519</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247747</v>
+        <v>8.915218264396685</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734075887</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.264216864854</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7427643629146</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7875959384519</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>118.092754139795</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004739</v>
+        <v>89.17712508496183</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>39.10323800812318</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>150.0833098246622</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1624,7 +1624,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>48.26361229938058</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>112.9416910403791</v>
       </c>
       <c r="C16" t="n">
-        <v>84.69473660442777</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>320.3718062679299</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>35.2113483754166</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>74.7576914549238</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2058,10 +2058,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>6.610881037623249</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2083,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>52.03044600306289</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>138.0518377514981</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>81.1740025376957</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>205.3213947154912</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2326,16 +2326,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>102.8695072550969</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>181.2350518667688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>18.26879610204004</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>36.41670903610054</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,13 +2557,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,7 +2572,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>252.1815824390003</v>
+        <v>263.8712335631105</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>90.41948680756568</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>127.3165365479904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>58.45344323545849</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>102.8695072550956</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>60.08838152387982</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>124.5403771939619</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3031,22 +3031,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>33.21555324159405</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>131.0573912450687</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>71.98153210089521</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>207.7497004594799</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>61.4169936080627</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>163.9429131475853</v>
+        <v>34.98723076369722</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.75634212185736</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>78.86438712404018</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>163.6898441249713</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>17.25588147840214</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>175.5903906093061</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>269.29415346822</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3951,10 +3951,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>193.7228370923124</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>176.5313218723653</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>272.8196895246587</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3988,10 +3988,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>310.8331573064592</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4188,19 +4188,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>89.20227235999667</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>73.53680714572759</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>583.2614020227597</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="C2" t="n">
-        <v>583.2614020227597</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="D2" t="n">
-        <v>583.2614020227597</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="E2" t="n">
-        <v>393.841617006275</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897903</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>53.10181779183029</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>141.3070323458398</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>271.1217663066259</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>407.6508467588565</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>523.2361246735312</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201467</v>
+        <v>566.6212953489526</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201467</v>
+        <v>456.7359354104568</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201467</v>
+        <v>456.7359354104568</v>
       </c>
       <c r="U2" t="n">
-        <v>738.6222485201467</v>
+        <v>456.7359354104568</v>
       </c>
       <c r="V2" t="n">
-        <v>738.6222485201467</v>
+        <v>456.7359354104568</v>
       </c>
       <c r="W2" t="n">
-        <v>738.6222485201467</v>
+        <v>456.7359354104568</v>
       </c>
       <c r="X2" t="n">
-        <v>583.2614020227597</v>
+        <v>308.4065201693368</v>
       </c>
       <c r="Y2" t="n">
-        <v>583.2614020227597</v>
+        <v>160.0771049282168</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>51.36582106616825</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>111.9554248488222</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>247.5338027825027</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>392.9114626603244</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>511.1831359408233</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>586.7735145200486</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652795</v>
+        <v>456.7359354104568</v>
       </c>
       <c r="T3" t="n">
-        <v>560.6825636487947</v>
+        <v>308.4065201693368</v>
       </c>
       <c r="U3" t="n">
-        <v>393.841617006275</v>
+        <v>160.0771049282168</v>
       </c>
       <c r="V3" t="n">
-        <v>204.4218319897903</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="W3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="X3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709671</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>557.3057129681424</v>
+        <v>160.0771049282168</v>
       </c>
       <c r="C4" t="n">
-        <v>388.3695300402355</v>
+        <v>160.0771049282168</v>
       </c>
       <c r="D4" t="n">
-        <v>238.2528906278998</v>
+        <v>160.0771049282168</v>
       </c>
       <c r="E4" t="n">
-        <v>90.33979704550669</v>
+        <v>160.0771049282168</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>160.0771049282168</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>95.91234996042006</v>
       </c>
       <c r="L4" t="n">
-        <v>216.063482639416</v>
+        <v>241.2900098382418</v>
       </c>
       <c r="M4" t="n">
-        <v>401.7138139340726</v>
+        <v>296.6291645991918</v>
       </c>
       <c r="N4" t="n">
-        <v>587.3641452287293</v>
+        <v>442.0068244770135</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652795</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652795</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846272</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846272</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846272</v>
+        <v>439.0550691137153</v>
       </c>
       <c r="T4" t="n">
-        <v>746.7254979846272</v>
+        <v>290.7256538725952</v>
       </c>
       <c r="U4" t="n">
-        <v>557.3057129681424</v>
+        <v>160.0771049282168</v>
       </c>
       <c r="V4" t="n">
-        <v>557.3057129681424</v>
+        <v>160.0771049282168</v>
       </c>
       <c r="W4" t="n">
-        <v>557.3057129681424</v>
+        <v>160.0771049282168</v>
       </c>
       <c r="X4" t="n">
-        <v>557.3057129681424</v>
+        <v>160.0771049282168</v>
       </c>
       <c r="Y4" t="n">
-        <v>557.3057129681424</v>
+        <v>160.0771049282168</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D5" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E5" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F5" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G5" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H5" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I5" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678508</v>
+        <v>13.34259413586628</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058969</v>
+        <v>64.08111238184313</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079186</v>
+        <v>163.928492730605</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644756</v>
+        <v>306.6973793432473</v>
       </c>
       <c r="N5" t="n">
-        <v>509.495204112383</v>
+        <v>456.390224180391</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985586</v>
+        <v>584.4056715233287</v>
       </c>
       <c r="P5" t="n">
-        <v>734.461172602027</v>
+        <v>659.1628932295217</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652803</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="R5" t="n">
-        <v>743.6410113056423</v>
+        <v>651.0948475466911</v>
       </c>
       <c r="S5" t="n">
-        <v>583.2614020227604</v>
+        <v>489.0629337562144</v>
       </c>
       <c r="T5" t="n">
-        <v>583.2614020227604</v>
+        <v>320.5958360811352</v>
       </c>
       <c r="U5" t="n">
-        <v>393.8416170062754</v>
+        <v>152.128738406056</v>
       </c>
       <c r="V5" t="n">
-        <v>393.8416170062754</v>
+        <v>152.128738406056</v>
       </c>
       <c r="W5" t="n">
-        <v>204.4218319897905</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="X5" t="n">
-        <v>204.4218319897905</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="Y5" t="n">
-        <v>204.4218319897905</v>
+        <v>13.34259413586627</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>254.4015891111996</v>
+        <v>321.514458802573</v>
       </c>
       <c r="C6" t="n">
-        <v>254.4015891111996</v>
+        <v>321.514458802573</v>
       </c>
       <c r="D6" t="n">
-        <v>254.4015891111996</v>
+        <v>172.5800491413218</v>
       </c>
       <c r="E6" t="n">
-        <v>254.4015891111996</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F6" t="n">
-        <v>254.4015891111996</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G6" t="n">
-        <v>116.8624079336487</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H6" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I6" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J6" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024219</v>
+        <v>59.33472114872545</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772651</v>
+        <v>167.499352853669</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140248</v>
+        <v>313.0792444295232</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546606</v>
+        <v>476.9208474646505</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476352</v>
+        <v>578.3521085265271</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017067</v>
+        <v>661.4800654501</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652803</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652803</v>
+        <v>637.5379034271451</v>
       </c>
       <c r="S6" t="n">
-        <v>598.8192732198765</v>
+        <v>489.7297958226411</v>
       </c>
       <c r="T6" t="n">
-        <v>409.3994882033916</v>
+        <v>489.7297958226411</v>
       </c>
       <c r="U6" t="n">
-        <v>409.3994882033916</v>
+        <v>489.7297958226411</v>
       </c>
       <c r="V6" t="n">
-        <v>409.3994882033916</v>
+        <v>489.7297958226411</v>
       </c>
       <c r="W6" t="n">
-        <v>254.4015891111996</v>
+        <v>489.7297958226411</v>
       </c>
       <c r="X6" t="n">
-        <v>254.4015891111996</v>
+        <v>489.7297958226411</v>
       </c>
       <c r="Y6" t="n">
-        <v>254.4015891111996</v>
+        <v>489.7297958226411</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.8429936158255</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="C7" t="n">
-        <v>181.8429936158255</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D7" t="n">
-        <v>181.8429936158255</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E7" t="n">
-        <v>181.8429936158255</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F7" t="n">
-        <v>181.8429936158255</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K7" t="n">
-        <v>106.7151088594234</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="L7" t="n">
-        <v>118.7527324484196</v>
+        <v>178.4571965672114</v>
       </c>
       <c r="M7" t="n">
-        <v>285.9838492295954</v>
+        <v>343.5717989985566</v>
       </c>
       <c r="N7" t="n">
-        <v>471.6341805242523</v>
+        <v>397.022822616492</v>
       </c>
       <c r="O7" t="n">
-        <v>634.3723839608025</v>
+        <v>555.2552294678668</v>
       </c>
       <c r="P7" t="n">
-        <v>750.1023486652803</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="Q7" t="n">
-        <v>750.1023486652803</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="R7" t="n">
-        <v>750.1023486652803</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="S7" t="n">
-        <v>750.1023486652803</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="T7" t="n">
-        <v>560.6825636487954</v>
+        <v>498.6626091182344</v>
       </c>
       <c r="U7" t="n">
-        <v>371.2627786323105</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="V7" t="n">
-        <v>371.2627786323105</v>
+        <v>161.728413768076</v>
       </c>
       <c r="W7" t="n">
-        <v>181.8429936158255</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="X7" t="n">
-        <v>181.8429936158255</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="Y7" t="n">
-        <v>181.8429936158255</v>
+        <v>13.34259413586627</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.00204697330559</v>
+        <v>21.46338433294301</v>
       </c>
       <c r="C8" t="n">
-        <v>15.00204697330559</v>
+        <v>21.46338433294301</v>
       </c>
       <c r="D8" t="n">
-        <v>15.00204697330559</v>
+        <v>21.46338433294301</v>
       </c>
       <c r="E8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123825</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985575</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R8" t="n">
-        <v>743.6410113056417</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S8" t="n">
-        <v>583.2614020227597</v>
+        <v>589.7227393823965</v>
       </c>
       <c r="T8" t="n">
-        <v>393.841617006275</v>
+        <v>400.302954365912</v>
       </c>
       <c r="U8" t="n">
-        <v>393.841617006275</v>
+        <v>400.302954365912</v>
       </c>
       <c r="V8" t="n">
-        <v>204.4218319897903</v>
+        <v>400.302954365912</v>
       </c>
       <c r="W8" t="n">
-        <v>15.00204697330559</v>
+        <v>400.302954365912</v>
       </c>
       <c r="X8" t="n">
-        <v>15.00204697330559</v>
+        <v>400.302954365912</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.00204697330559</v>
+        <v>210.8831693494275</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>371.26277863231</v>
+        <v>344.0797222513576</v>
       </c>
       <c r="C9" t="n">
-        <v>371.26277863231</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="D9" t="n">
-        <v>371.26277863231</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="E9" t="n">
-        <v>212.0253236268545</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F9" t="n">
-        <v>212.0253236268545</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G9" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024202</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140244</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546596</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476347</v>
+        <v>649.210157847634</v>
       </c>
       <c r="P9" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652795</v>
+        <v>722.9192922843266</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652795</v>
+        <v>722.9192922843266</v>
       </c>
       <c r="T9" t="n">
-        <v>560.6825636487947</v>
+        <v>533.4995072678421</v>
       </c>
       <c r="U9" t="n">
-        <v>560.6825636487947</v>
+        <v>533.4995072678421</v>
       </c>
       <c r="V9" t="n">
-        <v>560.6825636487947</v>
+        <v>533.4995072678421</v>
       </c>
       <c r="W9" t="n">
-        <v>371.26277863231</v>
+        <v>533.4995072678421</v>
       </c>
       <c r="X9" t="n">
-        <v>371.26277863231</v>
+        <v>344.0797222513576</v>
       </c>
       <c r="Y9" t="n">
-        <v>371.26277863231</v>
+        <v>344.0797222513576</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.00204697330559</v>
+        <v>165.1186863856413</v>
       </c>
       <c r="C10" t="n">
-        <v>15.00204697330559</v>
+        <v>165.1186863856413</v>
       </c>
       <c r="D10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330559</v>
+        <v>106.7151088594233</v>
       </c>
       <c r="L10" t="n">
-        <v>187.8896250884407</v>
+        <v>279.6026869745582</v>
       </c>
       <c r="M10" t="n">
-        <v>285.9838492295949</v>
+        <v>295.5529562639635</v>
       </c>
       <c r="N10" t="n">
-        <v>471.6341805242515</v>
+        <v>471.6341805242508</v>
       </c>
       <c r="O10" t="n">
-        <v>634.3723839608017</v>
+        <v>634.3723839608009</v>
       </c>
       <c r="P10" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="Q10" t="n">
-        <v>746.7254979846272</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="R10" t="n">
-        <v>612.5614882768591</v>
+        <v>733.3780414350948</v>
       </c>
       <c r="S10" t="n">
-        <v>612.5614882768591</v>
+        <v>543.9582564186103</v>
       </c>
       <c r="T10" t="n">
-        <v>423.1417032603744</v>
+        <v>354.5384714021258</v>
       </c>
       <c r="U10" t="n">
-        <v>423.1417032603744</v>
+        <v>354.5384714021258</v>
       </c>
       <c r="V10" t="n">
-        <v>233.7219182438896</v>
+        <v>354.5384714021258</v>
       </c>
       <c r="W10" t="n">
-        <v>233.7219182438896</v>
+        <v>165.1186863856413</v>
       </c>
       <c r="X10" t="n">
-        <v>204.4218319897903</v>
+        <v>165.1186863856413</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.00204697330559</v>
+        <v>165.1186863856413</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1636.624422581789</v>
+        <v>1619.514760630424</v>
       </c>
       <c r="C11" t="n">
-        <v>1636.624422581789</v>
+        <v>1250.552243690013</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>892.2865450832621</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767944</v>
+        <v>892.2865450832621</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>481.3006402936545</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218336</v>
+        <v>66.21592154951941</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218336</v>
+        <v>66.21592154951941</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218336</v>
+        <v>66.21592154951941</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>254.0744928369593</v>
       </c>
       <c r="K11" t="n">
-        <v>589.210621081055</v>
+        <v>586.3643121319019</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329463</v>
+        <v>1035.500977900981</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001387</v>
+        <v>1566.921495383895</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060169</v>
+        <v>2111.55476080156</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939506</v>
+        <v>2612.501248106872</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296683</v>
+        <v>3005.546484356407</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052365</v>
+        <v>3252.534341412639</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609168</v>
+        <v>3310.79607747597</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136263</v>
+        <v>3200.22583852823</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520485</v>
+        <v>3200.22583852823</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794321</v>
+        <v>2946.694380314936</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450751</v>
+        <v>2615.631492971365</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180636</v>
+        <v>2396.253932670358</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919556</v>
+        <v>2396.253932670358</v>
       </c>
       <c r="Y11" t="n">
-        <v>1636.624422581789</v>
+        <v>2006.114600694546</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3156003142899</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8625710331629</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9281613719115</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>448.690706366456</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>302.156148393341</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>165.7864839520669</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>75.22119252365769</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218336</v>
+        <v>66.21592154951941</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>159.2853526912741</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031475</v>
+        <v>396.510659118347</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158125</v>
+        <v>761.8119001858311</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438128</v>
+        <v>1207.458086537445</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992582</v>
+        <v>1679.307846295919</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410636</v>
+        <v>2088.738397943176</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886739</v>
+        <v>2398.00944543187</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533339</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2425.269938942937</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.600479990498</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.532201264789</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.380093033046</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.142736304845</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.291236099312</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.530937334358</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>333.7108202567937</v>
+        <v>679.447953298436</v>
       </c>
       <c r="C13" t="n">
-        <v>214.4252100145765</v>
+        <v>510.5117703705291</v>
       </c>
       <c r="D13" t="n">
-        <v>214.4252100145765</v>
+        <v>360.3951309581934</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218336</v>
+        <v>212.4820373758002</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218336</v>
+        <v>212.4820373758002</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218336</v>
+        <v>212.4820373758002</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218336</v>
+        <v>66.21592154951941</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218336</v>
+        <v>66.21592154951941</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791188</v>
+        <v>110.9572157501788</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279951</v>
+        <v>314.3177428179429</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764911</v>
+        <v>630.0756374886839</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760399</v>
+        <v>973.3871879897964</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581904</v>
+        <v>1313.970173580891</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502318</v>
+        <v>1612.537390213391</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935977</v>
+        <v>1844.49254089413</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088491</v>
+        <v>1921.651183891643</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846019</v>
+        <v>1831.573279765419</v>
       </c>
       <c r="S13" t="n">
-        <v>1837.464090846019</v>
+        <v>1639.79148866217</v>
       </c>
       <c r="T13" t="n">
-        <v>1615.697475415545</v>
+        <v>1418.001359273879</v>
       </c>
       <c r="U13" t="n">
-        <v>1326.594608541189</v>
+        <v>1418.001359273879</v>
       </c>
       <c r="V13" t="n">
-        <v>1071.910120335302</v>
+        <v>1418.001359273879</v>
       </c>
       <c r="W13" t="n">
-        <v>782.4929502983412</v>
+        <v>1128.584189236919</v>
       </c>
       <c r="X13" t="n">
-        <v>554.5033994003238</v>
+        <v>900.5946383389012</v>
       </c>
       <c r="Y13" t="n">
-        <v>333.7108202567937</v>
+        <v>861.0964181286757</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2085.807325826216</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C14" t="n">
-        <v>1934.208022973022</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D14" t="n">
-        <v>1575.942324366272</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5293,37 +5293,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136264</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>3215.315153136264</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>3215.315153136264</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W14" t="n">
-        <v>2862.54649786615</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X14" t="n">
-        <v>2862.54649786615</v>
+        <v>2023.224262645911</v>
       </c>
       <c r="Y14" t="n">
-        <v>2472.407165890338</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.0623554265549</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218339</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218339</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218339</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.6347488791189</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T16" t="n">
-        <v>1615.697475415546</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U16" t="n">
-        <v>1326.59460854119</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V16" t="n">
-        <v>1071.910120335303</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W16" t="n">
-        <v>782.4929502983421</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X16" t="n">
-        <v>554.5033994003247</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="Y16" t="n">
-        <v>333.7108202567946</v>
+        <v>644.3338566427969</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1918.208919851714</v>
+        <v>1672.191441142816</v>
       </c>
       <c r="C17" t="n">
-        <v>1549.246402911303</v>
+        <v>1672.191441142816</v>
       </c>
       <c r="D17" t="n">
-        <v>1190.980704304552</v>
+        <v>1313.925742536066</v>
       </c>
       <c r="E17" t="n">
-        <v>805.192451706308</v>
+        <v>928.1374899378213</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>517.1515851482138</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218339</v>
+        <v>102.0791349932103</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>102.0791349932103</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U17" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V17" t="n">
-        <v>2678.274518176916</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W17" t="n">
-        <v>2678.274518176916</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X17" t="n">
-        <v>2304.808759915836</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y17" t="n">
-        <v>2304.808759915836</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="18">
@@ -5570,64 +5570,64 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064581</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C19" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D19" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E19" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5694,10 +5694,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
         <v>1645.778206672847</v>
@@ -5706,19 +5706,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V19" t="n">
-        <v>1417.333933628612</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W19" t="n">
-        <v>1127.916763591651</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X19" t="n">
-        <v>899.9272126936338</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y19" t="n">
-        <v>679.1346335501037</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1642.972675199009</v>
+        <v>1734.047335491682</v>
       </c>
       <c r="C20" t="n">
-        <v>1590.416669135309</v>
+        <v>1365.084818551271</v>
       </c>
       <c r="D20" t="n">
-        <v>1232.150970528559</v>
+        <v>1006.81911994452</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528559</v>
+        <v>621.030867346276</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389511</v>
+        <v>621.030867346276</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>205.9584171912724</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5782,22 +5782,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V20" t="n">
-        <v>2755.806928794325</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W20" t="n">
-        <v>2403.038273524211</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="X20" t="n">
-        <v>2029.572515263131</v>
+        <v>2510.786507531616</v>
       </c>
       <c r="Y20" t="n">
-        <v>2029.572515263131</v>
+        <v>2120.647175555804</v>
       </c>
     </row>
     <row r="21">
@@ -5825,19 +5825,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5849,10 +5849,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>463.6594280995009</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="C22" t="n">
-        <v>294.723245171594</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D22" t="n">
-        <v>294.723245171594</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E22" t="n">
-        <v>294.723245171594</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F22" t="n">
-        <v>294.723245171594</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
         <v>66.51211643218343</v>
@@ -5913,13 +5913,13 @@
         <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279953</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5931,31 +5931,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T22" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U22" t="n">
-        <v>1638.191681214136</v>
+        <v>1438.382858475381</v>
       </c>
       <c r="V22" t="n">
-        <v>1383.507193008249</v>
+        <v>1183.698370269494</v>
       </c>
       <c r="W22" t="n">
-        <v>1094.090022971288</v>
+        <v>1183.698370269494</v>
       </c>
       <c r="X22" t="n">
-        <v>866.1004720732708</v>
+        <v>955.7088193714769</v>
       </c>
       <c r="Y22" t="n">
-        <v>645.3078929297407</v>
+        <v>734.9162402279468</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1502.309837160186</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C23" t="n">
-        <v>1133.347320219774</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D23" t="n">
-        <v>775.0816216130238</v>
+        <v>971.2814123723979</v>
       </c>
       <c r="E23" t="n">
-        <v>775.0816216130238</v>
+        <v>585.4931597741536</v>
       </c>
       <c r="F23" t="n">
-        <v>364.0957168234162</v>
+        <v>585.4931597741536</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>170.42070961915</v>
       </c>
       <c r="H23" t="n">
         <v>66.51211643218343</v>
@@ -5989,22 +5989,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
         <v>3018.302393296687</v>
@@ -6031,10 +6031,10 @@
         <v>2071.97538618064</v>
       </c>
       <c r="X23" t="n">
-        <v>2071.97538618064</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y23" t="n">
-        <v>1888.909677224308</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>231.8553933260938</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="C25" t="n">
-        <v>231.8553933260938</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="D25" t="n">
-        <v>231.8553933260938</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="E25" t="n">
-        <v>213.4020639300938</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
         <v>66.51211643218343</v>
@@ -6192,7 +6192,7 @@
         <v>452.6479724696239</v>
       </c>
       <c r="Y25" t="n">
-        <v>231.8553933260938</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1891.353293732295</v>
+        <v>1528.069587875904</v>
       </c>
       <c r="C26" t="n">
-        <v>1891.353293732295</v>
+        <v>1159.107070935492</v>
       </c>
       <c r="D26" t="n">
-        <v>1533.087595125544</v>
+        <v>1159.107070935492</v>
       </c>
       <c r="E26" t="n">
-        <v>1147.2993425273</v>
+        <v>1159.107070935492</v>
       </c>
       <c r="F26" t="n">
-        <v>736.3134377376923</v>
+        <v>748.1211661458844</v>
       </c>
       <c r="G26" t="n">
-        <v>321.2409875826888</v>
+        <v>333.0487159908809</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6250,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U26" t="n">
-        <v>2961.784676410101</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V26" t="n">
-        <v>2630.721789066531</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W26" t="n">
-        <v>2277.953133796416</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X26" t="n">
-        <v>2277.953133796416</v>
+        <v>2304.808759915837</v>
       </c>
       <c r="Y26" t="n">
-        <v>2277.953133796416</v>
+        <v>1914.669427940025</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G27" t="n">
         <v>176.0213023927779</v>
@@ -6311,7 +6311,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>234.2149530574644</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C28" t="n">
-        <v>234.2149530574644</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="D28" t="n">
-        <v>234.2149530574644</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="E28" t="n">
-        <v>234.2149530574644</v>
+        <v>304.7348788872308</v>
       </c>
       <c r="F28" t="n">
-        <v>234.2149530574644</v>
+        <v>157.8449313893205</v>
       </c>
       <c r="G28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U28" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V28" t="n">
-        <v>880.2242361621296</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W28" t="n">
-        <v>590.8070661251691</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X28" t="n">
-        <v>362.8175152271517</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y28" t="n">
-        <v>234.2149530574644</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1698.509627919559</v>
+        <v>1565.440264581601</v>
       </c>
       <c r="C29" t="n">
-        <v>1329.547110979147</v>
+        <v>1196.477747641189</v>
       </c>
       <c r="D29" t="n">
-        <v>971.2814123723965</v>
+        <v>838.2120490344385</v>
       </c>
       <c r="E29" t="n">
-        <v>585.4931597741522</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F29" t="n">
-        <v>585.4931597741522</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G29" t="n">
-        <v>170.4207096191487</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
         <v>66.5121164321834</v>
@@ -6463,10 +6463,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6496,19 +6496,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450753</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180638</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.509627919559</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y29" t="n">
-        <v>1698.509627919559</v>
+        <v>1952.040104645722</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>848.0708164780106</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="C31" t="n">
-        <v>679.1346335501037</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="D31" t="n">
-        <v>529.0179941377679</v>
+        <v>273.4246380869315</v>
       </c>
       <c r="E31" t="n">
-        <v>381.1049005553748</v>
+        <v>273.4246380869315</v>
       </c>
       <c r="F31" t="n">
-        <v>234.2149530574644</v>
+        <v>273.4246380869315</v>
       </c>
       <c r="G31" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H31" t="n">
         <v>66.5121164321834</v>
@@ -6651,22 +6651,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U31" t="n">
-        <v>1638.191681214136</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V31" t="n">
-        <v>1383.507193008249</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W31" t="n">
-        <v>1257.708832206268</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X31" t="n">
-        <v>1029.71928130825</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y31" t="n">
-        <v>1029.71928130825</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="32">
@@ -6679,19 +6679,19 @@
         <v>1311.909787855437</v>
       </c>
       <c r="C32" t="n">
-        <v>942.9472709150252</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="D32" t="n">
-        <v>584.6815723082748</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E32" t="n">
-        <v>198.8933197100305</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F32" t="n">
-        <v>198.8933197100305</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>198.8933197100305</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
         <v>66.5121164321834</v>
@@ -6700,10 +6700,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6782,10 +6782,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>753.0765981364621</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C34" t="n">
-        <v>584.1404152085552</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D34" t="n">
-        <v>434.0237757962194</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E34" t="n">
-        <v>286.1106822138263</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F34" t="n">
-        <v>139.2207347159159</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G34" t="n">
-        <v>139.2207347159159</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
         <v>66.5121164321834</v>
@@ -6885,25 +6885,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>1638.191681214136</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V34" t="n">
-        <v>1383.507193008249</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W34" t="n">
-        <v>1383.507193008249</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X34" t="n">
-        <v>1155.517642110232</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y34" t="n">
-        <v>934.7250629667018</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1619.798686923957</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="C35" t="n">
-        <v>1250.836169983545</v>
+        <v>1049.69844747624</v>
       </c>
       <c r="D35" t="n">
-        <v>892.5704713767946</v>
+        <v>691.4327488694898</v>
       </c>
       <c r="E35" t="n">
-        <v>892.5704713767946</v>
+        <v>691.4327488694898</v>
       </c>
       <c r="F35" t="n">
-        <v>481.5845665871869</v>
+        <v>691.4327488694898</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218343</v>
+        <v>276.3602987144863</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.97538618064</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X35" t="n">
-        <v>2009.938018899768</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y35" t="n">
-        <v>1619.798686923957</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7083,16 +7083,16 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7122,19 +7122,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1539.929030488741</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="V37" t="n">
-        <v>1539.929030488741</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W37" t="n">
-        <v>1250.51186045178</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X37" t="n">
         <v>1250.51186045178</v>
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1559.116588708439</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C38" t="n">
-        <v>1190.154071768027</v>
+        <v>942.9472709150252</v>
       </c>
       <c r="D38" t="n">
-        <v>1190.154071768027</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E38" t="n">
-        <v>1190.154071768027</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F38" t="n">
-        <v>779.1681669784198</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7198,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U38" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>2678.274518176917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W38" t="n">
-        <v>2325.505862906803</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X38" t="n">
-        <v>1952.040104645723</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y38" t="n">
-        <v>1561.900772669911</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.51211643218342</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C40" t="n">
-        <v>66.51211643218342</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218342</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218342</v>
+        <v>83.94229974370072</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1767.878520285688</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C41" t="n">
-        <v>1398.916003345277</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D41" t="n">
-        <v>1040.650304738526</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E41" t="n">
-        <v>654.862052140282</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F41" t="n">
-        <v>243.8761473506744</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G41" t="n">
-        <v>243.8761473506744</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
         <v>66.5121164321834</v>
@@ -7444,19 +7444,19 @@
         <v>3215.315153136265</v>
       </c>
       <c r="U41" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V41" t="n">
-        <v>2884.252265792694</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W41" t="n">
-        <v>2531.48361052258</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X41" t="n">
-        <v>2158.0178522615</v>
+        <v>2689.770379977556</v>
       </c>
       <c r="Y41" t="n">
-        <v>1767.878520285688</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="42">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>529.0179941377679</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C43" t="n">
-        <v>529.0179941377679</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D43" t="n">
         <v>529.0179941377679</v>
@@ -7599,22 +7599,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1513.842048484845</v>
+        <v>1539.929030488741</v>
       </c>
       <c r="U43" t="n">
-        <v>1224.739181610489</v>
+        <v>1539.929030488741</v>
       </c>
       <c r="V43" t="n">
-        <v>1224.739181610489</v>
+        <v>1539.929030488741</v>
       </c>
       <c r="W43" t="n">
-        <v>935.322011573528</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="X43" t="n">
-        <v>707.3324606755107</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y43" t="n">
-        <v>529.0179941377679</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1590.514489367197</v>
+        <v>1501.213961756483</v>
       </c>
       <c r="C44" t="n">
-        <v>1221.551972426786</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D44" t="n">
-        <v>863.2862738200351</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E44" t="n">
-        <v>477.498021221791</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F44" t="n">
-        <v>66.51211643218343</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
@@ -7681,19 +7681,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V44" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W44" t="n">
-        <v>2277.953133796418</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X44" t="n">
-        <v>1904.487375535338</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y44" t="n">
-        <v>1590.514489367197</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>680.3679798527295</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C46" t="n">
-        <v>511.4317969248226</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D46" t="n">
-        <v>361.3151575124869</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E46" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7836,22 +7836,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.505358501181</v>
       </c>
       <c r="U46" t="n">
-        <v>1446.505797040963</v>
+        <v>1356.402491626824</v>
       </c>
       <c r="V46" t="n">
-        <v>1372.22619386346</v>
+        <v>1101.718003420938</v>
       </c>
       <c r="W46" t="n">
-        <v>1082.809023826499</v>
+        <v>812.300833383977</v>
       </c>
       <c r="X46" t="n">
-        <v>1082.809023826499</v>
+        <v>584.3112824859596</v>
       </c>
       <c r="Y46" t="n">
-        <v>862.0164446829692</v>
+        <v>363.5187033424295</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.324764167328709</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>22.7749124282733</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8142,19 +8142,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>98.29368706161254</v>
+        <v>144.4438298277636</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>50.07406184977736</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>133.2236354305731</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>154.7818223541832</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>26.04487966482523</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265835</v>
+        <v>19.00792621918457</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8376,16 +8376,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>106.7437663446525</v>
+        <v>17.84535296940157</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>159.4104580922942</v>
       </c>
       <c r="M7" t="n">
-        <v>152.8089368603741</v>
+        <v>155.7185244657182</v>
       </c>
       <c r="N7" t="n">
-        <v>163.8604018711117</v>
+        <v>35.25321072636051</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8613,16 +8613,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402852</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>82.97369176944322</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>163.8604018711116</v>
+        <v>154.1946371899306</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>2.345373895096259e-12</v>
+        <v>0.5463950602909904</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>235.8877205747717</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22555,19 +22555,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059419</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753916</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637382</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>131.1116955327425</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>53.32320538102329</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>214.0843260727917</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1809648714442</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>215.9238626460559</v>
+        <v>222.8849795897602</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>239.3918175673448</v>
       </c>
     </row>
     <row r="3">
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>51.4739594949605</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>31.77141835213725</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>21.88218769163115</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681384</v>
+        <v>48.87899782081573</v>
       </c>
       <c r="U3" t="n">
-        <v>60.69123123399646</v>
+        <v>79.02279728521543</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831054</v>
+        <v>85.95446606071644</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459974</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22707,28 +22707,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>70.83667545145217</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>20.221440975532</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>28.07357741546446</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>8.838436914954002</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>61.07783192084716</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>77.15395808245967</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713042</v>
+        <v>156.926597685508</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>195.2082544971605</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22798,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>413.1696173863946</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>317.6289855973038</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>128.238775807139</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,22 +22831,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>4.968575157639741</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4438810562068</v>
+        <v>46.97568950224155</v>
       </c>
       <c r="U5" t="n">
-        <v>63.64367339871026</v>
+        <v>84.39257659920884</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>161.7153815510929</v>
+        <v>211.8426858899252</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.2021972754605</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>101.2126968995411</v>
       </c>
       <c r="I6" t="n">
-        <v>48.77881175550655</v>
+        <v>50.10118934773676</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>26.91122581714234</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>4.153628239317953</v>
       </c>
       <c r="T6" t="n">
-        <v>7.884010625681157</v>
+        <v>195.5644086209515</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8637684100909</v>
+        <v>225.8662952462544</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>98.24706305964952</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>1.82939802661943</v>
+        <v>167.0341351039889</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318196</v>
+        <v>153.7199572267894</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708667</v>
+        <v>126.6755586201103</v>
       </c>
       <c r="J7" t="n">
-        <v>23.4337583055308</v>
+        <v>25.71029132565417</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,25 +22986,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.343082173845758</v>
+        <v>6.039384816041505</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>134.2701942625523</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7802557954962</v>
+        <v>207.3414122568022</v>
       </c>
       <c r="T7" t="n">
-        <v>36.19408632378003</v>
+        <v>57.07482818812736</v>
       </c>
       <c r="U7" t="n">
-        <v>98.73949432713022</v>
+        <v>119.4844111533732</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>85.35521662549959</v>
       </c>
       <c r="W7" t="n">
-        <v>98.99741117027094</v>
+        <v>139.6210369007034</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971609</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,7 +23029,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>375.5336460862207</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23041,7 +23041,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>4.96857515763991</v>
+        <v>11.36529914368145</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>25.91829388988691</v>
+        <v>25.91829388988714</v>
       </c>
       <c r="U8" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897339</v>
       </c>
     </row>
     <row r="9">
@@ -23102,7 +23102,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>4.566680918445229</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23114,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>41.95250282950167</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>48.77881175550657</v>
+        <v>48.7788117555066</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>7.884010625681384</v>
+        <v>7.884010625681611</v>
       </c>
       <c r="U9" t="n">
         <v>225.8637684100909</v>
@@ -23162,10 +23162,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>64.16939599459974</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715784</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23184,7 +23184,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -23202,7 +23202,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>23.43375830553084</v>
+        <v>23.43375830553089</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>119.6083876266544</v>
       </c>
       <c r="S10" t="n">
-        <v>206.7802557954962</v>
+        <v>19.25466862917659</v>
       </c>
       <c r="T10" t="n">
-        <v>36.19408632378023</v>
+        <v>36.19408632378045</v>
       </c>
       <c r="U10" t="n">
         <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
-        <v>64.61205615750814</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027136</v>
       </c>
       <c r="X10" t="n">
-        <v>196.7025699974788</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>31.05906618577492</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.7321536188797</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292606</v>
+        <v>42.04518470759564</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9711388310543</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>132.0571840194159</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>324.971585371664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>49.1540669588328</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983813</v>
+        <v>96.51626366671985</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>179.4814153439716</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>215.1895819463454</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292598</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>321.4674883790884</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>66.89028914155824</v>
       </c>
       <c r="C16" t="n">
-        <v>82.55208449420006</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>86.50423947378158</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>6.365581397509352</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>245.5267622862048</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>313.2424457679447</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>156.5559266358224</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>84.85180572133252</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>80.8904434901217</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,16 +24214,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>191.7382571322235</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>205.0028867892848</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>128.1651665445291</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>109.0043389868307</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24445,13 +24445,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>42.42618194832016</v>
+        <v>30.73653082420992</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24609,13 +24609,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>75.60632145146255</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.26811680410439</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>323.4769268368033</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>191.7382571322248</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>105.9374267351484</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24891,7 +24891,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>161.9826211426291</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>321.4674883790889</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>163.5503731422518</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>16.142136056966</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>72.77348281342557</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25125,10 +25125,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25165,13 +25165,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>86.85806392784059</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>308.3141070704064</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>122.2689250580276</v>
+        <v>251.2246074419157</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>379.9774995416232</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>275.8186544966428</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.14213605696602</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,10 +25557,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>128.1651665445291</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>119.0173737780143</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25684,19 +25684,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>100.436947210249</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>25.82611218385676</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>42.05333147972948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>92.45320224634889</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>75.40478134959443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26076,19 +26076,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>130.3466769161725</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>178.6008361781004</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>480321.4544660314</v>
+        <v>446453.4711934131</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>480321.4544660316</v>
+        <v>462998.2110595118</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>480321.4544660313</v>
+        <v>480321.4544660312</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>896351.5607645907</v>
+        <v>894765.5924020971</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>896351.560764591</v>
+        <v>896351.5607645911</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>896351.5607645912</v>
+        <v>896351.5607645911</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>896351.5607645913</v>
+        <v>896351.5607645911</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>896351.5607645911</v>
+        <v>896351.5607645912</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>896351.5607645913</v>
+        <v>896351.5607645912</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>896351.5607645912</v>
+        <v>896351.5607645913</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>896351.5607645911</v>
+        <v>896351.5607645912</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>162397.4547967403</v>
+        <v>150913.5375162088</v>
       </c>
       <c r="C2" t="n">
-        <v>162397.4547967404</v>
+        <v>156563.0300299674</v>
       </c>
       <c r="D2" t="n">
-        <v>162397.4547967404</v>
+        <v>162397.4547967402</v>
       </c>
       <c r="E2" t="n">
-        <v>306897.3890738286</v>
+        <v>306285.7463411665</v>
       </c>
       <c r="F2" t="n">
         <v>306897.3890738286</v>
       </c>
       <c r="G2" t="n">
-        <v>306897.3890738287</v>
+        <v>306897.3890738289</v>
       </c>
       <c r="H2" t="n">
-        <v>306897.3890738287</v>
+        <v>306897.3890738288</v>
       </c>
       <c r="I2" t="n">
-        <v>306897.3890738286</v>
+        <v>306897.3890738288</v>
       </c>
       <c r="J2" t="n">
         <v>306897.3890738287</v>
@@ -26343,7 +26343,7 @@
         <v>306897.3890738286</v>
       </c>
       <c r="L2" t="n">
-        <v>306897.3890738287</v>
+        <v>306897.3890738286</v>
       </c>
       <c r="M2" t="n">
         <v>306897.3890738287</v>
@@ -26352,10 +26352,10 @@
         <v>306897.3890738286</v>
       </c>
       <c r="O2" t="n">
-        <v>306897.3890738288</v>
+        <v>306897.3890738286</v>
       </c>
       <c r="P2" t="n">
-        <v>306897.3890738287</v>
+        <v>306897.3890738286</v>
       </c>
     </row>
     <row r="3">
@@ -26365,49 +26365,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>542655.4349751307</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>23320.45473340624</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>21735.84085679036</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336669</v>
+        <v>623601.8614813621</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>3449.010472953293</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.9447285445</v>
+        <v>38421.40650613408</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5130.967102136543</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5249.907226004369</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678773</v>
+        <v>159533.7799986349</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>906.8265503280803</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.881082880572649e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11335.86481693335</v>
+        <v>10608.36731631682</v>
       </c>
       <c r="C4" t="n">
-        <v>11335.86481693335</v>
+        <v>10849.63882917329</v>
       </c>
       <c r="D4" t="n">
         <v>11335.86481693335</v>
       </c>
       <c r="E4" t="n">
-        <v>10380.34706710382</v>
+        <v>10558.76396175957</v>
       </c>
       <c r="F4" t="n">
-        <v>10380.34706710378</v>
+        <v>10380.3470671038</v>
       </c>
       <c r="G4" t="n">
         <v>10380.34706710378</v>
       </c>
       <c r="H4" t="n">
-        <v>10380.3470671038</v>
+        <v>10380.34706710378</v>
       </c>
       <c r="I4" t="n">
         <v>10380.34706710378</v>
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>53719.11977902091</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161359</v>
+        <v>55335.34872138573</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139324</v>
+        <v>74015.3682537726</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
@@ -26493,7 +26493,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
         <v>74306.34056139328</v>
@@ -26502,10 +26502,10 @@
         <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
         <v>74306.34056139328</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-508785.076377218</v>
+        <v>-457283.5804371636</v>
       </c>
       <c r="C6" t="n">
-        <v>82571.82614362735</v>
+        <v>65874.77793261905</v>
       </c>
       <c r="D6" t="n">
-        <v>82571.82614362774</v>
+        <v>71189.55236894632</v>
       </c>
       <c r="E6" t="n">
-        <v>-408400.1314863965</v>
+        <v>-402241.2643007154</v>
       </c>
       <c r="F6" t="n">
-        <v>218734.5121472702</v>
+        <v>218414.0720425721</v>
       </c>
       <c r="G6" t="n">
-        <v>218734.5121472706</v>
+        <v>221863.0825155255</v>
       </c>
       <c r="H6" t="n">
-        <v>218734.5121472705</v>
+        <v>221863.0825155256</v>
       </c>
       <c r="I6" t="n">
-        <v>218734.5121472703</v>
+        <v>221863.0825155256</v>
       </c>
       <c r="J6" t="n">
-        <v>169669.5674187261</v>
+        <v>183441.6760093914</v>
       </c>
       <c r="K6" t="n">
-        <v>218734.5121472705</v>
+        <v>216732.1154133889</v>
       </c>
       <c r="L6" t="n">
-        <v>218734.5121472706</v>
+        <v>216613.1752895211</v>
       </c>
       <c r="M6" t="n">
-        <v>58278.07027939328</v>
+        <v>62329.30251689062</v>
       </c>
       <c r="N6" t="n">
-        <v>218734.5121472705</v>
+        <v>220956.2559651974</v>
       </c>
       <c r="O6" t="n">
-        <v>218734.5121472707</v>
+        <v>221863.0825155254</v>
       </c>
       <c r="P6" t="n">
-        <v>218734.5121472704</v>
+        <v>221863.0825155254</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>512.0768631572211</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129048</v>
+        <v>530.6136320241912</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1086.755407162286</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663201</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="E4" t="n">
-        <v>831.401455402292</v>
+        <v>827.6990193689926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022929</v>
@@ -26813,7 +26813,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022925</v>
@@ -26822,16 +26822,16 @@
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>512.0768631572211</v>
       </c>
       <c r="C3" t="n">
+        <v>18.53676886697019</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.85630888871299</v>
+      </c>
+      <c r="E3" t="n">
+        <v>538.2854662493822</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.0212934310116</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>541.306759680393</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,49 +27011,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.93630560961958</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>20.74316046799123</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359721</v>
+        <v>640.173432202673</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>3.702436033300046</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663195</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560961947</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.74316046799123</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359725</v>
+        <v>640.173432202673</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.702436033300046</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27257,25 +27257,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560961958</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.74316046799123</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359721</v>
+        <v>640.173432202673</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.702436033300046</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.0586004549034</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>21.08264190877945</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>79.3641940376634</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>174.7211403593576</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>261.8616976154185</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>324.8625912871685</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>361.4722271270568</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>367.3212256695512</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>346.8510173961055</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>296.0293186656777</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>222.3056898744497</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>129.3135608253258</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>46.91035786611127</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.011523491339636</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>37.92267335645458</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>177.8597534986737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>199.755999762353</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>279.0818904206855</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>278.1878331720421</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>262.0625810914129</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>210.3283251711235</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>140.5989153332808</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>68.38641580050589</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>20.45891995727198</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.439609785297038</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07246370705055018</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9234172942179395</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.210019215864959</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>27.76967644793586</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>65.28560270120832</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>137.2869675421835</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>144.7498582199994</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>141.308030123369</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>130.5208371863685</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>111.6831243843224</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>77.32360633674038</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>41.52019942910843</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>16.09264502741627</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>3.945510257113013</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05036821604825131</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077002</v>
+        <v>2.133120128740466</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954486</v>
+        <v>21.8458165184633</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043123</v>
+        <v>82.23711376326689</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655544</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K5" t="n">
-        <v>280.472093452864</v>
+        <v>271.3408795762703</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672894</v>
+        <v>336.6223547162113</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470275</v>
+        <v>374.5572298056996</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470026</v>
+        <v>380.6179573714834</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622681</v>
+        <v>359.4067440913204</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244296</v>
+        <v>306.7453409130401</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151093</v>
+        <v>230.3529763025221</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974684</v>
+        <v>133.9946072869934</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619225</v>
+        <v>48.60847493367341</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924584</v>
+        <v>9.337733363561393</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1706496102992372</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435305</v>
+        <v>1.141319887750147</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575676</v>
+        <v>11.02274733695537</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590852</v>
+        <v>39.29544350367832</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340083</v>
+        <v>107.8297004474821</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621737</v>
+        <v>184.298132926742</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405033</v>
+        <v>247.8115835222414</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975331</v>
+        <v>289.1844294531842</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829655</v>
+        <v>296.8382808056841</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292674</v>
+        <v>245.0520636988653</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628873</v>
+        <v>217.9420406704645</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936715</v>
+        <v>145.68848251351</v>
       </c>
       <c r="R6" t="n">
-        <v>73.2466083355008</v>
+        <v>70.86194882013636</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288821</v>
+        <v>21.19951633606084</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820371</v>
+        <v>4.600320073870109</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07508683472040445</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.956844254469853</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620019</v>
+        <v>8.507215280650154</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639163</v>
+        <v>28.77491630714795</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114197</v>
+        <v>67.64888879101861</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765069</v>
+        <v>111.1679052011338</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276991</v>
+        <v>142.2566448872725</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682166</v>
+        <v>149.9896861802152</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604415</v>
+        <v>146.4232666862822</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592434</v>
+        <v>135.245586077248</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820538</v>
+        <v>115.7259632860629</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784863</v>
+        <v>80.12265843565288</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647912</v>
+        <v>43.0231971146172</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147603</v>
+        <v>16.67518578017007</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181396</v>
+        <v>4.088334541825734</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05219150478926476</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672893</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O8" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31597,46 +31597,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I9" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628872</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S9" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639162</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R10" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681595</v>
+        <v>4.368865958441349</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844665</v>
+        <v>44.74264849688748</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974798</v>
+        <v>168.4307048628103</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953986</v>
+        <v>370.8020371402618</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003807</v>
+        <v>555.7361331610842</v>
       </c>
       <c r="L11" t="n">
-        <v>691.356529362319</v>
+        <v>689.4398147367339</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574989</v>
+        <v>767.1346347251651</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095019</v>
+        <v>779.5476751295867</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099054</v>
+        <v>736.1047642553355</v>
       </c>
       <c r="P11" t="n">
-        <v>629.994981974641</v>
+        <v>628.2483859063145</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781687</v>
+        <v>471.7883737696336</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563567</v>
+        <v>274.4357762619417</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806945</v>
+        <v>99.55553302798235</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451119</v>
+        <v>19.12471073307702</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3495092766753079</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502565</v>
+        <v>2.337549366349069</v>
       </c>
       <c r="H12" t="n">
-        <v>22.6385688179853</v>
+        <v>22.57580572237127</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752252</v>
+        <v>80.48141458701839</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>220.8471530724794</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353155</v>
+        <v>377.462960617867</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138793</v>
+        <v>507.5455323732924</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233472</v>
+        <v>592.281696903446</v>
       </c>
       <c r="N12" t="n">
-        <v>609.647816683792</v>
+        <v>607.9576310312871</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970247</v>
+        <v>556.1624582295524</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002924</v>
+        <v>446.3694048776569</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987485</v>
+        <v>298.3861261325584</v>
       </c>
       <c r="R12" t="n">
-        <v>145.536594090554</v>
+        <v>145.133108903673</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238314</v>
+        <v>43.41895423898378</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898492</v>
+        <v>9.42196433190699</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1537861425229651</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430536</v>
+        <v>1.959722865374615</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311878</v>
+        <v>17.42371783942159</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742015</v>
+        <v>58.93421126053843</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297389</v>
+        <v>138.5524065819853</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702023</v>
+        <v>227.6841656317052</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098818</v>
+        <v>291.3573430939678</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316431</v>
+        <v>307.1954669786771</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883113</v>
+        <v>299.8910453895538</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023085999</v>
+        <v>276.9979191894956</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802168</v>
+        <v>237.0195727358533</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895879</v>
+        <v>164.1000664815053</v>
       </c>
       <c r="R13" t="n">
-        <v>88.3612387071221</v>
+        <v>88.11626629220765</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553034</v>
+        <v>34.15262484475577</v>
       </c>
       <c r="T13" t="n">
-        <v>8.39664015211229</v>
+        <v>8.373361333873351</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1068939744749791</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563583</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33502,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33985,7 +33985,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>41.77184657043796</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>89.09617631718129</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>131.1259938997841</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>137.9081620729602</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>116.7528059744187</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>64.79632291040821</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>40.01831452431469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>61.20161998247878</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>136.9478564986671</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>119.4663366469685</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>76.35391775679327</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>0.6171412472592692</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,19 +34859,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062401</v>
+        <v>85.01480835689227</v>
       </c>
       <c r="L4" t="n">
-        <v>110.4529028080733</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663199</v>
+        <v>55.89813612217167</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="O4" t="n">
-        <v>164.382023673283</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868137</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788344</v>
+        <v>51.25102853128971</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973021</v>
+        <v>100.8559397462241</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197548</v>
+        <v>144.2109965784269</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504117</v>
+        <v>151.2048937748925</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405814</v>
+        <v>129.3085326696337</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656916001</v>
+        <v>75.5123451577706</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065984</v>
+        <v>8.047286428072653</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781475</v>
+        <v>46.45669395238301</v>
       </c>
       <c r="L6" t="n">
-        <v>117.5966053606292</v>
+        <v>109.2572037423672</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755148</v>
+        <v>147.0503955311659</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996322</v>
+        <v>165.4965687223508</v>
       </c>
       <c r="O6" t="n">
-        <v>138.091009184823</v>
+        <v>102.4558192544208</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855702</v>
+        <v>83.96763325613429</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440765002</v>
+        <v>5.706708427488508</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>92.63945645062405</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646083</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="M7" t="n">
-        <v>168.9203199809857</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="N7" t="n">
-        <v>187.5255871663201</v>
+        <v>53.99093294740955</v>
       </c>
       <c r="O7" t="n">
-        <v>164.382023673283</v>
+        <v>159.8307139912877</v>
       </c>
       <c r="P7" t="n">
-        <v>116.8989542469473</v>
+        <v>113.0045225509564</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L8" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405812</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P8" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L9" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855694</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,19 +35333,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>92.63945645062394</v>
       </c>
       <c r="L10" t="n">
-        <v>174.6339172880152</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M10" t="n">
-        <v>99.08507489005474</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N10" t="n">
-        <v>187.5255871663199</v>
+        <v>177.8598224851387</v>
       </c>
       <c r="O10" t="n">
-        <v>164.382023673283</v>
+        <v>164.3820236732829</v>
       </c>
       <c r="P10" t="n">
         <v>116.8989542469472</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687123</v>
+        <v>189.7561326135755</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554002</v>
+        <v>335.6462821161037</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923317</v>
+        <v>453.6733997667466</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302262</v>
+        <v>536.7884014978924</v>
       </c>
       <c r="N11" t="n">
-        <v>552.301835412911</v>
+        <v>550.1346115329957</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882187</v>
+        <v>506.0065528336487</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193714</v>
+        <v>397.015390151045</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037192</v>
+        <v>249.4826838951841</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222461</v>
+        <v>58.85023844780955</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597696</v>
+        <v>94.00952640581272</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609565</v>
+        <v>239.621521643508</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340051</v>
+        <v>368.9911525934182</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013289</v>
+        <v>450.1476629814277</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004588</v>
+        <v>476.6159189479538</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525802</v>
+        <v>413.5662137851079</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859622</v>
+        <v>312.3949974633267</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127269</v>
+        <v>158.4043520465369</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306614</v>
+        <v>45.19322646531248</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443194</v>
+        <v>205.4146738058223</v>
       </c>
       <c r="L13" t="n">
-        <v>319.757372170198</v>
+        <v>318.9473683542839</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934837</v>
+        <v>346.7793439405177</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675399</v>
+        <v>344.0232177687824</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226396</v>
+        <v>301.5830471035353</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451103</v>
+        <v>234.2981320007468</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789354</v>
+        <v>77.93802322981087</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222617</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37633,7 +37633,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
